--- a/data/data_ananlyse/buy_history.xlsx
+++ b/data/data_ananlyse/buy_history.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,16 +393,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20150115</v>
+        <v>20090115</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>3501.719</v>
+        <v>1935.386</v>
       </c>
       <c r="E2" t="n">
-        <v>3604.121</v>
+        <v>1954.874</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20150122</v>
+        <v>20090122</v>
       </c>
       <c r="C3" t="n">
         <v>2000</v>
       </c>
       <c r="D3" t="n">
-        <v>3551.052</v>
+        <v>2034.286</v>
       </c>
       <c r="E3" t="n">
-        <v>3567.613</v>
+        <v>2044.551</v>
       </c>
     </row>
     <row r="4">
@@ -427,16 +427,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20150129</v>
+        <v>20090205</v>
       </c>
       <c r="C4" t="n">
         <v>2000</v>
       </c>
       <c r="D4" t="n">
-        <v>3474.915</v>
+        <v>2164.546000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>3481.798</v>
+        <v>2150.971</v>
       </c>
     </row>
     <row r="5">
@@ -444,16 +444,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20150205</v>
+        <v>20090212</v>
       </c>
       <c r="C5" t="n">
         <v>2000</v>
       </c>
       <c r="D5" t="n">
-        <v>3487.951</v>
+        <v>2335.401</v>
       </c>
       <c r="E5" t="n">
-        <v>3366.946</v>
+        <v>2318.343</v>
       </c>
     </row>
     <row r="6">
@@ -461,16 +461,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20150212</v>
+        <v>20090219</v>
       </c>
       <c r="C6" t="n">
         <v>2000</v>
       </c>
       <c r="D6" t="n">
-        <v>3435.361</v>
+        <v>2295.653</v>
       </c>
       <c r="E6" t="n">
-        <v>3442.874000000001</v>
+        <v>2298.412000000001</v>
       </c>
     </row>
     <row r="7">
@@ -478,16 +478,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20150226</v>
+        <v>20090226</v>
       </c>
       <c r="C7" t="n">
         <v>2000</v>
       </c>
       <c r="D7" t="n">
-        <v>3473.713</v>
+        <v>2295.426</v>
       </c>
       <c r="E7" t="n">
-        <v>3566.295</v>
+        <v>2190.185</v>
       </c>
     </row>
     <row r="8">
@@ -495,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20150305</v>
+        <v>20090305</v>
       </c>
       <c r="C8" t="n">
         <v>2000</v>
       </c>
       <c r="D8" t="n">
-        <v>3513.249000000001</v>
+        <v>2314.079</v>
       </c>
       <c r="E8" t="n">
-        <v>3496.344</v>
+        <v>2304.919</v>
       </c>
     </row>
     <row r="9">
@@ -512,16 +512,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20150312</v>
+        <v>20090312</v>
       </c>
       <c r="C9" t="n">
         <v>2000</v>
       </c>
       <c r="D9" t="n">
-        <v>3557.686</v>
+        <v>2208.041</v>
       </c>
       <c r="E9" t="n">
-        <v>3592.844</v>
+        <v>2215.7</v>
       </c>
     </row>
     <row r="10">
@@ -529,16 +529,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20150319</v>
+        <v>20090319</v>
       </c>
       <c r="C10" t="n">
         <v>2000</v>
       </c>
       <c r="D10" t="n">
-        <v>3851.249</v>
+        <v>2337.524</v>
       </c>
       <c r="E10" t="n">
-        <v>3839.739</v>
+        <v>2382.564</v>
       </c>
     </row>
     <row r="11">
@@ -546,16 +546,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20150326</v>
+        <v>20090326</v>
       </c>
       <c r="C11" t="n">
         <v>2000</v>
       </c>
       <c r="D11" t="n">
-        <v>3921.745</v>
+        <v>2407.762</v>
       </c>
       <c r="E11" t="n">
-        <v>3949.999</v>
+        <v>2479.789</v>
       </c>
     </row>
     <row r="12">
@@ -563,16 +563,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20150402</v>
+        <v>20090402</v>
       </c>
       <c r="C12" t="n">
         <v>2000</v>
       </c>
       <c r="D12" t="n">
-        <v>4149.946</v>
+        <v>2558.768</v>
       </c>
       <c r="E12" t="n">
-        <v>4124.776</v>
+        <v>2576.4</v>
       </c>
     </row>
     <row r="13">
@@ -580,16 +580,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20150409</v>
+        <v>20090409</v>
       </c>
       <c r="C13" t="n">
         <v>2000</v>
       </c>
       <c r="D13" t="n">
-        <v>4316.958</v>
+        <v>2477.419</v>
       </c>
       <c r="E13" t="n">
-        <v>4262.138</v>
+        <v>2517.669</v>
       </c>
     </row>
     <row r="14">
@@ -597,16 +597,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20150416</v>
+        <v>20090416</v>
       </c>
       <c r="C14" t="n">
         <v>2000</v>
       </c>
       <c r="D14" t="n">
-        <v>4355.491</v>
+        <v>2690.515</v>
       </c>
       <c r="E14" t="n">
-        <v>4513.545999999998</v>
+        <v>2687.106</v>
       </c>
     </row>
     <row r="15">
@@ -614,16 +614,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20150423</v>
+        <v>20090423</v>
       </c>
       <c r="C15" t="n">
         <v>2000</v>
       </c>
       <c r="D15" t="n">
-        <v>4764.481</v>
+        <v>2555.527</v>
       </c>
       <c r="E15" t="n">
-        <v>4740.892</v>
+        <v>2593.564</v>
       </c>
     </row>
     <row r="16">
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20150430</v>
+        <v>20090430</v>
       </c>
       <c r="C16" t="n">
         <v>2000</v>
       </c>
       <c r="D16" t="n">
-        <v>4788.412</v>
+        <v>2616.485</v>
       </c>
       <c r="E16" t="n">
-        <v>4749.886</v>
+        <v>2622.926</v>
       </c>
     </row>
     <row r="17">
@@ -648,16 +648,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20150507</v>
+        <v>20090507</v>
       </c>
       <c r="C17" t="n">
         <v>2000</v>
       </c>
       <c r="D17" t="n">
-        <v>4520.818</v>
+        <v>2783.577</v>
       </c>
       <c r="E17" t="n">
-        <v>4470.089</v>
+        <v>2767.076</v>
       </c>
     </row>
     <row r="18">
@@ -665,16 +665,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20150514</v>
+        <v>20090514</v>
       </c>
       <c r="C18" t="n">
         <v>2000</v>
       </c>
       <c r="D18" t="n">
-        <v>4717.955</v>
+        <v>2781.048</v>
       </c>
       <c r="E18" t="n">
-        <v>4700.778</v>
+        <v>2792.597</v>
       </c>
     </row>
     <row r="19">
@@ -682,16 +682,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20150521</v>
+        <v>20090521</v>
       </c>
       <c r="C19" t="n">
         <v>2000</v>
       </c>
       <c r="D19" t="n">
-        <v>4768.689</v>
+        <v>2795.828</v>
       </c>
       <c r="E19" t="n">
-        <v>4840.976</v>
+        <v>2750.01</v>
       </c>
     </row>
     <row r="20">
@@ -699,16 +699,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20150528</v>
+        <v>20090604</v>
       </c>
       <c r="C20" t="n">
         <v>2000</v>
       </c>
       <c r="D20" t="n">
-        <v>5174.101</v>
+        <v>2924.267000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>4834.007000000001</v>
+        <v>2953.751</v>
       </c>
     </row>
     <row r="21">
@@ -716,16 +716,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20150604</v>
+        <v>20090611</v>
       </c>
       <c r="C21" t="n">
         <v>2000</v>
       </c>
       <c r="D21" t="n">
-        <v>5156.012</v>
+        <v>2982.969</v>
       </c>
       <c r="E21" t="n">
-        <v>5181.416</v>
+        <v>2961.629000000001</v>
       </c>
     </row>
     <row r="22">
@@ -733,16 +733,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20150611</v>
+        <v>20090618</v>
       </c>
       <c r="C22" t="n">
         <v>2000</v>
       </c>
       <c r="D22" t="n">
-        <v>5305.1407</v>
+        <v>3014.437</v>
       </c>
       <c r="E22" t="n">
-        <v>5306.59</v>
+        <v>3057.428</v>
       </c>
     </row>
     <row r="23">
@@ -750,16 +750,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20150618</v>
+        <v>20090625</v>
       </c>
       <c r="C23" t="n">
         <v>2000</v>
       </c>
       <c r="D23" t="n">
-        <v>5107.6946</v>
+        <v>3125.662000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>4930.5491</v>
+        <v>3117.921</v>
       </c>
     </row>
     <row r="24">
@@ -767,16 +767,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20150625</v>
+        <v>20090702</v>
       </c>
       <c r="C24" t="n">
         <v>2000</v>
       </c>
       <c r="D24" t="n">
-        <v>4906.2416</v>
+        <v>3248.204</v>
       </c>
       <c r="E24" t="n">
-        <v>4706.5159</v>
+        <v>3282.359000000001</v>
       </c>
     </row>
     <row r="25">
@@ -784,16 +784,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20150702</v>
+        <v>20090709</v>
       </c>
       <c r="C25" t="n">
         <v>2000</v>
       </c>
       <c r="D25" t="n">
-        <v>4287.7344</v>
+        <v>3348.221</v>
       </c>
       <c r="E25" t="n">
-        <v>4107.9961</v>
+        <v>3396.304</v>
       </c>
     </row>
     <row r="26">
@@ -801,16 +801,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20150709</v>
+        <v>20090716</v>
       </c>
       <c r="C26" t="n">
         <v>2000</v>
       </c>
       <c r="D26" t="n">
-        <v>3621.6804</v>
+        <v>3516.778</v>
       </c>
       <c r="E26" t="n">
-        <v>3897.6263</v>
+        <v>3501.24</v>
       </c>
     </row>
     <row r="27">
@@ -818,16 +818,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20150716</v>
+        <v>20090723</v>
       </c>
       <c r="C27" t="n">
         <v>2000</v>
       </c>
       <c r="D27" t="n">
-        <v>3949.639</v>
+        <v>3613.598</v>
       </c>
       <c r="E27" t="n">
-        <v>3997.3555</v>
+        <v>3651.969</v>
       </c>
     </row>
     <row r="28">
@@ -835,16 +835,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20150723</v>
+        <v>20090730</v>
       </c>
       <c r="C28" t="n">
         <v>2000</v>
       </c>
       <c r="D28" t="n">
-        <v>4158.932</v>
+        <v>3587.047</v>
       </c>
       <c r="E28" t="n">
-        <v>4250.805</v>
+        <v>3634.818</v>
       </c>
     </row>
     <row r="29">
@@ -852,16 +852,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20150730</v>
+        <v>20090806</v>
       </c>
       <c r="C29" t="n">
         <v>2000</v>
       </c>
       <c r="D29" t="n">
-        <v>3915.7795</v>
+        <v>3707.907</v>
       </c>
       <c r="E29" t="n">
-        <v>3815.4118</v>
+        <v>3663.12</v>
       </c>
     </row>
     <row r="30">
@@ -869,16 +869,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20150806</v>
+        <v>20090813</v>
       </c>
       <c r="C30" t="n">
         <v>2000</v>
       </c>
       <c r="D30" t="n">
-        <v>3802.928</v>
+        <v>3398.889</v>
       </c>
       <c r="E30" t="n">
-        <v>3831.8516</v>
+        <v>3440.82</v>
       </c>
     </row>
     <row r="31">
@@ -886,16 +886,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20150813</v>
+        <v>20090820</v>
       </c>
       <c r="C31" t="n">
         <v>2000</v>
       </c>
       <c r="D31" t="n">
-        <v>4010.0129</v>
+        <v>3021.251</v>
       </c>
       <c r="E31" t="n">
-        <v>4075.463</v>
+        <v>3144.39</v>
       </c>
     </row>
     <row r="32">
@@ -903,16 +903,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20150820</v>
+        <v>20090827</v>
       </c>
       <c r="C32" t="n">
         <v>2000</v>
       </c>
       <c r="D32" t="n">
-        <v>3848.4034</v>
+        <v>3149.566</v>
       </c>
       <c r="E32" t="n">
-        <v>3761.4541</v>
+        <v>3156.301</v>
       </c>
     </row>
     <row r="33">
@@ -920,16 +920,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20150827</v>
+        <v>20090903</v>
       </c>
       <c r="C33" t="n">
         <v>2000</v>
       </c>
       <c r="D33" t="n">
-        <v>3092.8123</v>
+        <v>2898.449</v>
       </c>
       <c r="E33" t="n">
-        <v>3205.6375</v>
+        <v>3051.964</v>
       </c>
     </row>
     <row r="34">
@@ -937,16 +937,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20150910</v>
+        <v>20090910</v>
       </c>
       <c r="C34" t="n">
         <v>2000</v>
       </c>
       <c r="D34" t="n">
-        <v>3349.2806</v>
+        <v>3179.187</v>
       </c>
       <c r="E34" t="n">
-        <v>3357.561</v>
+        <v>3162.914</v>
       </c>
     </row>
     <row r="35">
@@ -954,16 +954,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20150917</v>
+        <v>20090917</v>
       </c>
       <c r="C35" t="n">
         <v>2000</v>
       </c>
       <c r="D35" t="n">
-        <v>3287.6567</v>
+        <v>3274.582000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>3236.9986</v>
+        <v>3320.096</v>
       </c>
     </row>
     <row r="36">
@@ -971,16 +971,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20150924</v>
+        <v>20090924</v>
       </c>
       <c r="C36" t="n">
         <v>2000</v>
       </c>
       <c r="D36" t="n">
-        <v>3278.8962</v>
+        <v>3041.82</v>
       </c>
       <c r="E36" t="n">
-        <v>3284.9991</v>
+        <v>3080.926</v>
       </c>
     </row>
     <row r="37">
@@ -988,16 +988,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20151008</v>
+        <v>20091015</v>
       </c>
       <c r="C37" t="n">
         <v>2000</v>
       </c>
       <c r="D37" t="n">
-        <v>3324.981</v>
+        <v>3258.546</v>
       </c>
       <c r="E37" t="n">
-        <v>3296.482</v>
+        <v>3239.643</v>
       </c>
     </row>
     <row r="38">
@@ -1005,16 +1005,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20151015</v>
+        <v>20091022</v>
       </c>
       <c r="C38" t="n">
         <v>2000</v>
       </c>
       <c r="D38" t="n">
-        <v>3403.3891</v>
+        <v>3364.145</v>
       </c>
       <c r="E38" t="n">
-        <v>3486.815</v>
+        <v>3347.32</v>
       </c>
     </row>
     <row r="39">
@@ -1022,16 +1022,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20151022</v>
+        <v>20091029</v>
       </c>
       <c r="C39" t="n">
         <v>2000</v>
       </c>
       <c r="D39" t="n">
-        <v>3453.2013</v>
+        <v>3265.186</v>
       </c>
       <c r="E39" t="n">
-        <v>3524.5339</v>
+        <v>3247.051</v>
       </c>
     </row>
     <row r="40">
@@ -1039,16 +1039,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20151029</v>
+        <v>20091105</v>
       </c>
       <c r="C40" t="n">
         <v>2000</v>
       </c>
       <c r="D40" t="n">
-        <v>3539.9777</v>
+        <v>3458.865</v>
       </c>
       <c r="E40" t="n">
-        <v>3533.3065</v>
+        <v>3464.318</v>
       </c>
     </row>
     <row r="41">
@@ -1056,16 +1056,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20151105</v>
+        <v>20091112</v>
       </c>
       <c r="C41" t="n">
         <v>2000</v>
       </c>
       <c r="D41" t="n">
-        <v>3630.7817</v>
+        <v>3506.952</v>
       </c>
       <c r="E41" t="n">
-        <v>3705.9697</v>
+        <v>3499.992</v>
       </c>
     </row>
     <row r="42">
@@ -1073,16 +1073,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20151112</v>
+        <v>20091119</v>
       </c>
       <c r="C42" t="n">
         <v>2000</v>
       </c>
       <c r="D42" t="n">
-        <v>3841.7376</v>
+        <v>3638.073</v>
       </c>
       <c r="E42" t="n">
-        <v>3795.3241</v>
+        <v>3642.437</v>
       </c>
     </row>
     <row r="43">
@@ -1090,16 +1090,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20151119</v>
+        <v>20091126</v>
       </c>
       <c r="C43" t="n">
         <v>2000</v>
       </c>
       <c r="D43" t="n">
-        <v>3725.622</v>
+        <v>3635.79</v>
       </c>
       <c r="E43" t="n">
-        <v>3774.969</v>
+        <v>3485.773</v>
       </c>
     </row>
     <row r="44">
@@ -1107,16 +1107,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20151126</v>
+        <v>20091203</v>
       </c>
       <c r="C44" t="n">
         <v>2000</v>
       </c>
       <c r="D44" t="n">
-        <v>3795.2454</v>
+        <v>3596.952</v>
       </c>
       <c r="E44" t="n">
-        <v>3759.4286</v>
+        <v>3590.876</v>
       </c>
     </row>
     <row r="45">
@@ -1124,16 +1124,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20151203</v>
+        <v>20091210</v>
       </c>
       <c r="C45" t="n">
         <v>2000</v>
       </c>
       <c r="D45" t="n">
-        <v>3709.5469</v>
+        <v>3579.826</v>
       </c>
       <c r="E45" t="n">
-        <v>3749.2985</v>
+        <v>3577.237</v>
       </c>
     </row>
     <row r="46">
@@ -1141,16 +1141,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20151210</v>
+        <v>20091217</v>
       </c>
       <c r="C46" t="n">
         <v>2000</v>
       </c>
       <c r="D46" t="n">
-        <v>3634.366</v>
+        <v>3571.052</v>
       </c>
       <c r="E46" t="n">
-        <v>3623.0842</v>
+        <v>3480.153</v>
       </c>
     </row>
     <row r="47">
@@ -1158,16 +1158,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20151217</v>
+        <v>20091224</v>
       </c>
       <c r="C47" t="n">
         <v>2000</v>
       </c>
       <c r="D47" t="n">
-        <v>3712.7833</v>
+        <v>3346.763</v>
       </c>
       <c r="E47" t="n">
-        <v>3755.8881</v>
+        <v>3438.817</v>
       </c>
     </row>
     <row r="48">
@@ -1175,16 +1175,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20151224</v>
+        <v>20091231</v>
       </c>
       <c r="C48" t="n">
         <v>2000</v>
       </c>
       <c r="D48" t="n">
-        <v>3858.1348</v>
+        <v>3561.367</v>
       </c>
       <c r="E48" t="n">
-        <v>3829.4022</v>
+        <v>3575.684</v>
       </c>
     </row>
     <row r="49">
@@ -1192,16 +1192,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20151231</v>
+        <v>20100107</v>
       </c>
       <c r="C49" t="n">
         <v>2000</v>
       </c>
       <c r="D49" t="n">
-        <v>3760.9039</v>
+        <v>3543.16</v>
       </c>
       <c r="E49" t="n">
-        <v>3731.0047</v>
+        <v>3471.456</v>
       </c>
     </row>
     <row r="50">
@@ -1209,16 +1209,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20160107</v>
+        <v>20100114</v>
       </c>
       <c r="C50" t="n">
         <v>2000</v>
       </c>
       <c r="D50" t="n">
-        <v>3481.1499</v>
+        <v>3433.472</v>
       </c>
       <c r="E50" t="n">
-        <v>3294.3839</v>
+        <v>3469.051</v>
       </c>
     </row>
     <row r="51">
@@ -1226,16 +1226,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20160114</v>
+        <v>20100121</v>
       </c>
       <c r="C51" t="n">
         <v>2000</v>
       </c>
       <c r="D51" t="n">
-        <v>3076.6445</v>
+        <v>3397.043</v>
       </c>
       <c r="E51" t="n">
-        <v>3221.5714</v>
+        <v>3408.574</v>
       </c>
     </row>
     <row r="52">
@@ -1243,16 +1243,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20160121</v>
+        <v>20100128</v>
       </c>
       <c r="C52" t="n">
         <v>2000</v>
       </c>
       <c r="D52" t="n">
-        <v>3136.3841</v>
+        <v>3195.289</v>
       </c>
       <c r="E52" t="n">
-        <v>3081.3454</v>
+        <v>3206.57</v>
       </c>
     </row>
     <row r="53">
@@ -1260,16 +1260,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20160128</v>
+        <v>20100204</v>
       </c>
       <c r="C53" t="n">
         <v>2000</v>
       </c>
       <c r="D53" t="n">
-        <v>2909.3341</v>
+        <v>3206.431</v>
       </c>
       <c r="E53" t="n">
-        <v>2853.7562</v>
+        <v>3218.802</v>
       </c>
     </row>
     <row r="54">
@@ -1277,16 +1277,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20160204</v>
+        <v>20100211</v>
       </c>
       <c r="C54" t="n">
         <v>2000</v>
       </c>
       <c r="D54" t="n">
-        <v>2960.3335</v>
+        <v>3216.688</v>
       </c>
       <c r="E54" t="n">
-        <v>2984.7598</v>
+        <v>3220.398</v>
       </c>
     </row>
     <row r="55">
@@ -1294,16 +1294,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20160218</v>
+        <v>20100225</v>
       </c>
       <c r="C55" t="n">
         <v>2000</v>
       </c>
       <c r="D55" t="n">
-        <v>3079.5272</v>
+        <v>3252.153</v>
       </c>
       <c r="E55" t="n">
-        <v>3053.6985</v>
+        <v>3292.128</v>
       </c>
     </row>
     <row r="56">
@@ -1311,16 +1311,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20160225</v>
+        <v>20100304</v>
       </c>
       <c r="C56" t="n">
         <v>2000</v>
       </c>
       <c r="D56" t="n">
-        <v>3104.4097</v>
+        <v>3338.674</v>
       </c>
       <c r="E56" t="n">
-        <v>2918.7501</v>
+        <v>3250.573</v>
       </c>
     </row>
     <row r="57">
@@ -1328,16 +1328,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20160303</v>
+        <v>20100311</v>
       </c>
       <c r="C57" t="n">
         <v>2000</v>
       </c>
       <c r="D57" t="n">
-        <v>3050.3886</v>
+        <v>3282.199</v>
       </c>
       <c r="E57" t="n">
-        <v>3058.4219</v>
+        <v>3276.705</v>
       </c>
     </row>
     <row r="58">
@@ -1345,16 +1345,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20160310</v>
+        <v>20100318</v>
       </c>
       <c r="C58" t="n">
         <v>2000</v>
       </c>
       <c r="D58" t="n">
-        <v>3056.2104</v>
+        <v>3277.883</v>
       </c>
       <c r="E58" t="n">
-        <v>3013.1457</v>
+        <v>3267.555</v>
       </c>
     </row>
     <row r="59">
@@ -1362,16 +1362,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20160317</v>
+        <v>20100325</v>
       </c>
       <c r="C59" t="n">
         <v>2000</v>
       </c>
       <c r="D59" t="n">
-        <v>3096.8076</v>
+        <v>3270.39</v>
       </c>
       <c r="E59" t="n">
-        <v>3124.2039</v>
+        <v>3229.128</v>
       </c>
     </row>
     <row r="60">
@@ -1379,16 +1379,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20160324</v>
+        <v>20100401</v>
       </c>
       <c r="C60" t="n">
         <v>2000</v>
       </c>
       <c r="D60" t="n">
-        <v>3211.496</v>
+        <v>3349.884</v>
       </c>
       <c r="E60" t="n">
-        <v>3181.8507</v>
+        <v>3391.935</v>
       </c>
     </row>
     <row r="61">
@@ -1396,16 +1396,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20160331</v>
+        <v>20100408</v>
       </c>
       <c r="C61" t="n">
         <v>2000</v>
       </c>
       <c r="D61" t="n">
-        <v>3229.1995</v>
+        <v>3381.306</v>
       </c>
       <c r="E61" t="n">
-        <v>3218.0879</v>
+        <v>3346.744</v>
       </c>
     </row>
     <row r="62">
@@ -1413,16 +1413,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20160407</v>
+        <v>20100415</v>
       </c>
       <c r="C62" t="n">
         <v>2000</v>
       </c>
       <c r="D62" t="n">
-        <v>3266.2883</v>
+        <v>3407.025</v>
       </c>
       <c r="E62" t="n">
-        <v>3209.2902</v>
+        <v>3394.574</v>
       </c>
     </row>
     <row r="63">
@@ -1430,16 +1430,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20160414</v>
+        <v>20100422</v>
       </c>
       <c r="C63" t="n">
         <v>2000</v>
       </c>
       <c r="D63" t="n">
-        <v>3277.0982</v>
+        <v>3222.68</v>
       </c>
       <c r="E63" t="n">
-        <v>3275.8321</v>
+        <v>3201.541</v>
       </c>
     </row>
     <row r="64">
@@ -1447,16 +1447,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20160421</v>
+        <v>20100429</v>
       </c>
       <c r="C64" t="n">
         <v>2000</v>
       </c>
       <c r="D64" t="n">
-        <v>3160.7958</v>
+        <v>3114.941</v>
       </c>
       <c r="E64" t="n">
-        <v>3160.6033</v>
+        <v>3060.064000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1464,16 +1464,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20160428</v>
+        <v>20100506</v>
       </c>
       <c r="C65" t="n">
         <v>2000</v>
       </c>
       <c r="D65" t="n">
-        <v>3169.3333</v>
+        <v>3014.907</v>
       </c>
       <c r="E65" t="n">
-        <v>3160.5809</v>
+        <v>2896.856</v>
       </c>
     </row>
     <row r="66">
@@ -1481,16 +1481,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20160505</v>
+        <v>20100513</v>
       </c>
       <c r="C66" t="n">
         <v>2000</v>
       </c>
       <c r="D66" t="n">
-        <v>3204.1686</v>
+        <v>2818.578</v>
       </c>
       <c r="E66" t="n">
-        <v>3213.9199</v>
+        <v>2886.911</v>
       </c>
     </row>
     <row r="67">
@@ -1498,16 +1498,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20160512</v>
+        <v>20100520</v>
       </c>
       <c r="C67" t="n">
         <v>2000</v>
       </c>
       <c r="D67" t="n">
-        <v>3059.3831</v>
+        <v>2739.219</v>
       </c>
       <c r="E67" t="n">
-        <v>3090.1372</v>
+        <v>2726.022</v>
       </c>
     </row>
     <row r="68">
@@ -1515,16 +1515,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20160519</v>
+        <v>20100527</v>
       </c>
       <c r="C68" t="n">
         <v>2000</v>
       </c>
       <c r="D68" t="n">
-        <v>3060.3426</v>
+        <v>2808.048</v>
       </c>
       <c r="E68" t="n">
-        <v>3062.5002</v>
+        <v>2859.979000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1532,16 +1532,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20160526</v>
+        <v>20100603</v>
       </c>
       <c r="C69" t="n">
         <v>2000</v>
       </c>
       <c r="D69" t="n">
-        <v>3056.6004</v>
+        <v>2769.096</v>
       </c>
       <c r="E69" t="n">
-        <v>3064.2111</v>
+        <v>2736.076</v>
       </c>
     </row>
     <row r="70">
@@ -1549,16 +1549,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20160602</v>
+        <v>20100610</v>
       </c>
       <c r="C70" t="n">
         <v>2000</v>
       </c>
       <c r="D70" t="n">
-        <v>3158.0259</v>
+        <v>2755.94</v>
       </c>
       <c r="E70" t="n">
-        <v>3167.0997</v>
+        <v>2750.023</v>
       </c>
     </row>
     <row r="71">
@@ -1566,16 +1566,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20160616</v>
+        <v>20100617</v>
       </c>
       <c r="C71" t="n">
         <v>2000</v>
       </c>
       <c r="D71" t="n">
-        <v>3104.3619</v>
+        <v>2778.533</v>
       </c>
       <c r="E71" t="n">
-        <v>3094.6748</v>
+        <v>2742.733</v>
       </c>
     </row>
     <row r="72">
@@ -1583,16 +1583,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20160623</v>
+        <v>20100624</v>
       </c>
       <c r="C72" t="n">
         <v>2000</v>
       </c>
       <c r="D72" t="n">
-        <v>3129.7207</v>
+        <v>2753.712</v>
       </c>
       <c r="E72" t="n">
-        <v>3117.3168</v>
+        <v>2757.498</v>
       </c>
     </row>
     <row r="73">
@@ -1600,16 +1600,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20160630</v>
+        <v>20100701</v>
       </c>
       <c r="C73" t="n">
         <v>2000</v>
       </c>
       <c r="D73" t="n">
-        <v>3152.8331</v>
+        <v>2557.92</v>
       </c>
       <c r="E73" t="n">
-        <v>3153.921</v>
+        <v>2526.071</v>
       </c>
     </row>
     <row r="74">
@@ -1617,16 +1617,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20160707</v>
+        <v>20100708</v>
       </c>
       <c r="C74" t="n">
         <v>2000</v>
       </c>
       <c r="D74" t="n">
-        <v>3206.5507</v>
+        <v>2591.509</v>
       </c>
       <c r="E74" t="n">
-        <v>3209.9542</v>
+        <v>2575.921000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1634,16 +1634,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20160714</v>
+        <v>20100715</v>
       </c>
       <c r="C75" t="n">
         <v>2000</v>
       </c>
       <c r="D75" t="n">
-        <v>3277.4816</v>
+        <v>2650.334000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>3276.7637</v>
+        <v>2608.519</v>
       </c>
     </row>
     <row r="76">
@@ -1651,16 +1651,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20160721</v>
+        <v>20100722</v>
       </c>
       <c r="C76" t="n">
         <v>2000</v>
       </c>
       <c r="D76" t="n">
-        <v>3238.3367</v>
+        <v>2738.027</v>
       </c>
       <c r="E76" t="n">
-        <v>3252.5227</v>
+        <v>2781.286</v>
       </c>
     </row>
     <row r="77">
@@ -1668,16 +1668,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20160728</v>
+        <v>20100729</v>
       </c>
       <c r="C77" t="n">
         <v>2000</v>
       </c>
       <c r="D77" t="n">
-        <v>3204.4645</v>
+        <v>2866.772</v>
       </c>
       <c r="E77" t="n">
-        <v>3221.1365</v>
+        <v>2877.976</v>
       </c>
     </row>
     <row r="78">
@@ -1685,16 +1685,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20160804</v>
+        <v>20100805</v>
       </c>
       <c r="C78" t="n">
         <v>2000</v>
       </c>
       <c r="D78" t="n">
-        <v>3190.546</v>
+        <v>2874.66</v>
       </c>
       <c r="E78" t="n">
-        <v>3201.2888</v>
+        <v>2850.829</v>
       </c>
     </row>
     <row r="79">
@@ -1702,16 +1702,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20160811</v>
+        <v>20100812</v>
       </c>
       <c r="C79" t="n">
         <v>2000</v>
       </c>
       <c r="D79" t="n">
-        <v>3239.5583</v>
+        <v>2822.791</v>
       </c>
       <c r="E79" t="n">
-        <v>3233.3604</v>
+        <v>2816.386</v>
       </c>
     </row>
     <row r="80">
@@ -1719,16 +1719,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20160818</v>
+        <v>20100819</v>
       </c>
       <c r="C80" t="n">
         <v>2000</v>
       </c>
       <c r="D80" t="n">
-        <v>3369.9472</v>
+        <v>2940.767000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>3364.4851</v>
+        <v>2955.395</v>
       </c>
     </row>
     <row r="81">
@@ -1736,16 +1736,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20160825</v>
+        <v>20100826</v>
       </c>
       <c r="C81" t="n">
         <v>2000</v>
       </c>
       <c r="D81" t="n">
-        <v>3314.0846</v>
+        <v>2853.105</v>
       </c>
       <c r="E81" t="n">
-        <v>3308.9721</v>
+        <v>2850.093</v>
       </c>
     </row>
     <row r="82">
@@ -1753,16 +1753,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20160901</v>
+        <v>20100902</v>
       </c>
       <c r="C82" t="n">
         <v>2000</v>
       </c>
       <c r="D82" t="n">
-        <v>3326.7389</v>
+        <v>2917.735</v>
       </c>
       <c r="E82" t="n">
-        <v>3301.5767</v>
+        <v>2921.393</v>
       </c>
     </row>
     <row r="83">
@@ -1770,16 +1770,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20160908</v>
+        <v>20100909</v>
       </c>
       <c r="C83" t="n">
         <v>2000</v>
       </c>
       <c r="D83" t="n">
-        <v>3338.0082</v>
+        <v>2986.867</v>
       </c>
       <c r="E83" t="n">
-        <v>3339.564000000001</v>
+        <v>2926.46</v>
       </c>
     </row>
     <row r="84">
@@ -1787,16 +1787,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20160922</v>
+        <v>20100916</v>
       </c>
       <c r="C84" t="n">
         <v>2000</v>
       </c>
       <c r="D84" t="n">
-        <v>3281.4718</v>
+        <v>2908.322</v>
       </c>
       <c r="E84" t="n">
-        <v>3291.1211</v>
+        <v>2857.789</v>
       </c>
     </row>
     <row r="85">
@@ -1804,16 +1804,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20160929</v>
+        <v>20100930</v>
       </c>
       <c r="C85" t="n">
         <v>2000</v>
       </c>
       <c r="D85" t="n">
-        <v>3234.857</v>
+        <v>2859.06</v>
       </c>
       <c r="E85" t="n">
-        <v>3244.3874</v>
+        <v>2935.574</v>
       </c>
     </row>
     <row r="86">
@@ -1821,16 +1821,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20161013</v>
+        <v>20101014</v>
       </c>
       <c r="C86" t="n">
         <v>2000</v>
       </c>
       <c r="D86" t="n">
-        <v>3299.1557</v>
+        <v>3245.133</v>
       </c>
       <c r="E86" t="n">
-        <v>3302.6455</v>
+        <v>3224.14</v>
       </c>
     </row>
     <row r="87">
@@ -1838,16 +1838,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20161020</v>
+        <v>20101021</v>
       </c>
       <c r="C87" t="n">
         <v>2000</v>
       </c>
       <c r="D87" t="n">
-        <v>3317.1792</v>
+        <v>3404.721</v>
       </c>
       <c r="E87" t="n">
-        <v>3318.6044</v>
+        <v>3374.685</v>
       </c>
     </row>
     <row r="88">
@@ -1855,16 +1855,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20161027</v>
+        <v>20101028</v>
       </c>
       <c r="C88" t="n">
         <v>2000</v>
       </c>
       <c r="D88" t="n">
-        <v>3351.4603</v>
+        <v>3390.426</v>
       </c>
       <c r="E88" t="n">
-        <v>3345.695</v>
+        <v>3397.692</v>
       </c>
     </row>
     <row r="89">
@@ -1872,16 +1872,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20161103</v>
+        <v>20101104</v>
       </c>
       <c r="C89" t="n">
         <v>2000</v>
       </c>
       <c r="D89" t="n">
-        <v>3326.9045</v>
+        <v>3426.46</v>
       </c>
       <c r="E89" t="n">
-        <v>3365.085</v>
+        <v>3480.505</v>
       </c>
     </row>
     <row r="90">
@@ -1889,16 +1889,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20161110</v>
+        <v>20101111</v>
       </c>
       <c r="C90" t="n">
         <v>2000</v>
       </c>
       <c r="D90" t="n">
-        <v>3374.906</v>
+        <v>3490.738</v>
       </c>
       <c r="E90" t="n">
-        <v>3390.6119</v>
+        <v>3509.975</v>
       </c>
     </row>
     <row r="91">
@@ -1906,16 +1906,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20161117</v>
+        <v>20101118</v>
       </c>
       <c r="C91" t="n">
         <v>2000</v>
       </c>
       <c r="D91" t="n">
-        <v>3423.4654</v>
+        <v>3134.937</v>
       </c>
       <c r="E91" t="n">
-        <v>3436.535</v>
+        <v>3147.962</v>
       </c>
     </row>
     <row r="92">
@@ -1923,16 +1923,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20161124</v>
+        <v>20101125</v>
       </c>
       <c r="C92" t="n">
         <v>2000</v>
       </c>
       <c r="D92" t="n">
-        <v>3468.8071</v>
+        <v>3197.965</v>
       </c>
       <c r="E92" t="n">
-        <v>3488.7402</v>
+        <v>3223.484000000001</v>
       </c>
     </row>
     <row r="93">
@@ -1940,16 +1940,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20161201</v>
+        <v>20101202</v>
       </c>
       <c r="C93" t="n">
         <v>2000</v>
       </c>
       <c r="D93" t="n">
-        <v>3543.9555</v>
+        <v>3185.76</v>
       </c>
       <c r="E93" t="n">
-        <v>3565.036</v>
+        <v>3155.059</v>
       </c>
     </row>
     <row r="94">
@@ -1957,16 +1957,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20161208</v>
+        <v>20101209</v>
       </c>
       <c r="C94" t="n">
         <v>2000</v>
       </c>
       <c r="D94" t="n">
-        <v>3481.8067</v>
+        <v>3155.996</v>
       </c>
       <c r="E94" t="n">
-        <v>3470.1426</v>
+        <v>3123.366</v>
       </c>
     </row>
     <row r="95">
@@ -1974,16 +1974,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20161215</v>
+        <v>20101216</v>
       </c>
       <c r="C95" t="n">
         <v>2000</v>
       </c>
       <c r="D95" t="n">
-        <v>3363.8597</v>
+        <v>3246.013</v>
       </c>
       <c r="E95" t="n">
-        <v>3340.4338</v>
+        <v>3230.665</v>
       </c>
     </row>
     <row r="96">
@@ -1991,16 +1991,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20161222</v>
+        <v>20101223</v>
       </c>
       <c r="C96" t="n">
         <v>2000</v>
       </c>
       <c r="D96" t="n">
-        <v>3335.1218</v>
+        <v>3210.67</v>
       </c>
       <c r="E96" t="n">
-        <v>3335.672</v>
+        <v>3188.607</v>
       </c>
     </row>
     <row r="97">
@@ -2008,16 +2008,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20161229</v>
+        <v>20101230</v>
       </c>
       <c r="C97" t="n">
         <v>2000</v>
       </c>
       <c r="D97" t="n">
-        <v>3297.036</v>
+        <v>3063.05</v>
       </c>
       <c r="E97" t="n">
-        <v>3297.7648</v>
+        <v>3064.098</v>
       </c>
     </row>
     <row r="98">
@@ -2025,16 +2025,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20170105</v>
+        <v>20110106</v>
       </c>
       <c r="C98" t="n">
         <v>2000</v>
       </c>
       <c r="D98" t="n">
-        <v>3368.3402</v>
+        <v>3177.835</v>
       </c>
       <c r="E98" t="n">
-        <v>3367.7892</v>
+        <v>3159.643</v>
       </c>
     </row>
     <row r="99">
@@ -2042,16 +2042,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20170112</v>
+        <v>20110113</v>
       </c>
       <c r="C99" t="n">
         <v>2000</v>
       </c>
       <c r="D99" t="n">
-        <v>3332.6857</v>
+        <v>3153.985</v>
       </c>
       <c r="E99" t="n">
-        <v>3317.6241</v>
+        <v>3141.284</v>
       </c>
     </row>
     <row r="100">
@@ -2059,16 +2059,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20170119</v>
+        <v>20110120</v>
       </c>
       <c r="C100" t="n">
         <v>2000</v>
       </c>
       <c r="D100" t="n">
-        <v>3330.9522</v>
+        <v>3037.862</v>
       </c>
       <c r="E100" t="n">
-        <v>3329.2891</v>
+        <v>2944.713</v>
       </c>
     </row>
     <row r="101">
@@ -2076,16 +2076,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20170126</v>
+        <v>20110127</v>
       </c>
       <c r="C101" t="n">
         <v>2000</v>
       </c>
       <c r="D101" t="n">
-        <v>3378.2609</v>
+        <v>2953.589</v>
       </c>
       <c r="E101" t="n">
-        <v>3387.9606</v>
+        <v>3026.466</v>
       </c>
     </row>
     <row r="102">
@@ -2093,16 +2093,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20170209</v>
+        <v>20110210</v>
       </c>
       <c r="C102" t="n">
         <v>2000</v>
       </c>
       <c r="D102" t="n">
-        <v>3381.8992</v>
+        <v>3034.079</v>
       </c>
       <c r="E102" t="n">
-        <v>3396.2924</v>
+        <v>3104.163</v>
       </c>
     </row>
     <row r="103">
@@ -2110,16 +2110,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20170216</v>
+        <v>20110217</v>
       </c>
       <c r="C103" t="n">
         <v>2000</v>
       </c>
       <c r="D103" t="n">
-        <v>3421.8299</v>
+        <v>3255.626</v>
       </c>
       <c r="E103" t="n">
-        <v>3440.9331</v>
+        <v>3245.907</v>
       </c>
     </row>
     <row r="104">
@@ -2127,16 +2127,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>20170223</v>
+        <v>20110224</v>
       </c>
       <c r="C104" t="n">
         <v>2000</v>
       </c>
       <c r="D104" t="n">
-        <v>3487.5745</v>
+        <v>3170.236</v>
       </c>
       <c r="E104" t="n">
-        <v>3473.3236</v>
+        <v>3190.935</v>
       </c>
     </row>
     <row r="105">
@@ -2144,16 +2144,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20170302</v>
+        <v>20110303</v>
       </c>
       <c r="C105" t="n">
         <v>2000</v>
       </c>
       <c r="D105" t="n">
-        <v>3463.4829</v>
+        <v>3248.156</v>
       </c>
       <c r="E105" t="n">
-        <v>3435.0963</v>
+        <v>3221.718</v>
       </c>
     </row>
     <row r="106">
@@ -2161,16 +2161,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20170309</v>
+        <v>20110310</v>
       </c>
       <c r="C106" t="n">
         <v>2000</v>
       </c>
       <c r="D106" t="n">
-        <v>3442.8953</v>
+        <v>3330.444</v>
       </c>
       <c r="E106" t="n">
-        <v>3426.9438</v>
+        <v>3280.259</v>
       </c>
     </row>
     <row r="107">
@@ -2178,16 +2178,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>20170316</v>
+        <v>20110317</v>
       </c>
       <c r="C107" t="n">
         <v>2000</v>
       </c>
       <c r="D107" t="n">
-        <v>3472.2694</v>
+        <v>3216.288</v>
       </c>
       <c r="E107" t="n">
-        <v>3481.5066</v>
+        <v>3197.1</v>
       </c>
     </row>
     <row r="108">
@@ -2195,16 +2195,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>20170323</v>
+        <v>20110324</v>
       </c>
       <c r="C108" t="n">
         <v>2000</v>
       </c>
       <c r="D108" t="n">
-        <v>3452.4056</v>
+        <v>3269.575</v>
       </c>
       <c r="E108" t="n">
-        <v>3461.9782</v>
+        <v>3251.361</v>
       </c>
     </row>
     <row r="109">
@@ -2212,16 +2212,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>20170330</v>
+        <v>20110331</v>
       </c>
       <c r="C109" t="n">
         <v>2000</v>
       </c>
       <c r="D109" t="n">
-        <v>3461.6159</v>
+        <v>3257.164</v>
       </c>
       <c r="E109" t="n">
-        <v>3436.758</v>
+        <v>3223.288</v>
       </c>
     </row>
     <row r="110">
@@ -2229,16 +2229,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20170406</v>
+        <v>20110407</v>
       </c>
       <c r="C110" t="n">
         <v>2000</v>
       </c>
       <c r="D110" t="n">
-        <v>3507.9879</v>
+        <v>3313.467</v>
       </c>
       <c r="E110" t="n">
-        <v>3514.0469</v>
+        <v>3324.419000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2246,16 +2246,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20170413</v>
+        <v>20110414</v>
       </c>
       <c r="C111" t="n">
         <v>2000</v>
       </c>
       <c r="D111" t="n">
-        <v>3500.2838</v>
+        <v>3374.324</v>
       </c>
       <c r="E111" t="n">
-        <v>3514.5662</v>
+        <v>3353.56</v>
       </c>
     </row>
     <row r="112">
@@ -2263,16 +2263,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20170420</v>
+        <v>20110421</v>
       </c>
       <c r="C112" t="n">
         <v>2000</v>
       </c>
       <c r="D112" t="n">
-        <v>3444.5225</v>
+        <v>3312.271</v>
       </c>
       <c r="E112" t="n">
-        <v>3461.5481</v>
+        <v>3317.367</v>
       </c>
     </row>
     <row r="113">
@@ -2280,16 +2280,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20170427</v>
+        <v>20110428</v>
       </c>
       <c r="C113" t="n">
         <v>2000</v>
       </c>
       <c r="D113" t="n">
-        <v>3435.1017</v>
+        <v>3224.413</v>
       </c>
       <c r="E113" t="n">
-        <v>3446.7202</v>
+        <v>3161.776</v>
       </c>
     </row>
     <row r="114">
@@ -2297,16 +2297,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20170504</v>
+        <v>20110505</v>
       </c>
       <c r="C114" t="n">
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>3404.9379</v>
+        <v>3115.003</v>
       </c>
       <c r="E114" t="n">
-        <v>3404.3864</v>
+        <v>3126.117</v>
       </c>
     </row>
     <row r="115">
@@ -2314,16 +2314,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>20170511</v>
+        <v>20110512</v>
       </c>
       <c r="C115" t="n">
         <v>2000</v>
       </c>
       <c r="D115" t="n">
-        <v>3322.9455</v>
+        <v>3123.158</v>
       </c>
       <c r="E115" t="n">
-        <v>3356.6459</v>
+        <v>3101.603</v>
       </c>
     </row>
     <row r="116">
@@ -2331,16 +2331,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20170518</v>
+        <v>20110519</v>
       </c>
       <c r="C116" t="n">
         <v>2000</v>
       </c>
       <c r="D116" t="n">
-        <v>3387.6655</v>
+        <v>3148.353</v>
       </c>
       <c r="E116" t="n">
-        <v>3398.1127</v>
+        <v>3120.639</v>
       </c>
     </row>
     <row r="117">
@@ -2348,16 +2348,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>20170525</v>
+        <v>20110526</v>
       </c>
       <c r="C117" t="n">
         <v>2000</v>
       </c>
       <c r="D117" t="n">
-        <v>3414.3992</v>
+        <v>3011.466</v>
       </c>
       <c r="E117" t="n">
-        <v>3485.6581</v>
+        <v>2978.381</v>
       </c>
     </row>
     <row r="118">
@@ -2365,16 +2365,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20170601</v>
+        <v>20110602</v>
       </c>
       <c r="C118" t="n">
         <v>2000</v>
       </c>
       <c r="D118" t="n">
-        <v>3485.2223</v>
+        <v>2970.634</v>
       </c>
       <c r="E118" t="n">
-        <v>3497.7382</v>
+        <v>2955.705</v>
       </c>
     </row>
     <row r="119">
@@ -2382,16 +2382,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20170608</v>
+        <v>20110609</v>
       </c>
       <c r="C119" t="n">
         <v>2000</v>
       </c>
       <c r="D119" t="n">
-        <v>3531.2419</v>
+        <v>3000.404</v>
       </c>
       <c r="E119" t="n">
-        <v>3560.9786</v>
+        <v>2951.889</v>
       </c>
     </row>
     <row r="120">
@@ -2399,16 +2399,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20170615</v>
+        <v>20110616</v>
       </c>
       <c r="C120" t="n">
         <v>2000</v>
       </c>
       <c r="D120" t="n">
-        <v>3530.7465</v>
+        <v>2939.681</v>
       </c>
       <c r="E120" t="n">
-        <v>3528.7926</v>
+        <v>2917.578</v>
       </c>
     </row>
     <row r="121">
@@ -2416,16 +2416,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20170622</v>
+        <v>20110623</v>
       </c>
       <c r="C121" t="n">
         <v>2000</v>
       </c>
       <c r="D121" t="n">
-        <v>3583.5583</v>
+        <v>2899.013</v>
       </c>
       <c r="E121" t="n">
-        <v>3590.3425</v>
+        <v>2957.629000000001</v>
       </c>
     </row>
     <row r="122">
@@ -2433,16 +2433,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20170629</v>
+        <v>20110630</v>
       </c>
       <c r="C122" t="n">
         <v>2000</v>
       </c>
       <c r="D122" t="n">
-        <v>3649.2525</v>
+        <v>3003.23</v>
       </c>
       <c r="E122" t="n">
-        <v>3668.8279</v>
+        <v>3044.089</v>
       </c>
     </row>
     <row r="123">
@@ -2450,16 +2450,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20170706</v>
+        <v>20110707</v>
       </c>
       <c r="C123" t="n">
         <v>2000</v>
       </c>
       <c r="D123" t="n">
-        <v>3654.5576</v>
+        <v>3123.29</v>
       </c>
       <c r="E123" t="n">
-        <v>3660.0967</v>
+        <v>3101.68</v>
       </c>
     </row>
     <row r="124">
@@ -2467,16 +2467,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20170713</v>
+        <v>20110714</v>
       </c>
       <c r="C124" t="n">
         <v>2000</v>
       </c>
       <c r="D124" t="n">
-        <v>3656.3502</v>
+        <v>3112.587</v>
       </c>
       <c r="E124" t="n">
-        <v>3686.9205</v>
+        <v>3115.745</v>
       </c>
     </row>
     <row r="125">
@@ -2484,16 +2484,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20170720</v>
+        <v>20110721</v>
       </c>
       <c r="C125" t="n">
         <v>2000</v>
       </c>
       <c r="D125" t="n">
-        <v>3725.1436</v>
+        <v>3092.271</v>
       </c>
       <c r="E125" t="n">
-        <v>3747.8843</v>
+        <v>3059.139</v>
       </c>
     </row>
     <row r="126">
@@ -2501,16 +2501,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20170727</v>
+        <v>20110728</v>
       </c>
       <c r="C126" t="n">
         <v>2000</v>
       </c>
       <c r="D126" t="n">
-        <v>3700.8558</v>
+        <v>2973.642000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>3712.1947</v>
+        <v>2981.002</v>
       </c>
     </row>
     <row r="127">
@@ -2518,16 +2518,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20170803</v>
+        <v>20110804</v>
       </c>
       <c r="C127" t="n">
         <v>2000</v>
       </c>
       <c r="D127" t="n">
-        <v>3755.1081</v>
+        <v>2962.913</v>
       </c>
       <c r="E127" t="n">
-        <v>3727.8264</v>
+        <v>2960.309</v>
       </c>
     </row>
     <row r="128">
@@ -2535,16 +2535,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20170810</v>
+        <v>20110811</v>
       </c>
       <c r="C128" t="n">
         <v>2000</v>
       </c>
       <c r="D128" t="n">
-        <v>3724.962</v>
+        <v>2779.715</v>
       </c>
       <c r="E128" t="n">
-        <v>3715.9208</v>
+        <v>2866.924</v>
       </c>
     </row>
     <row r="129">
@@ -2552,16 +2552,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20170817</v>
+        <v>20110818</v>
       </c>
       <c r="C129" t="n">
         <v>2000</v>
       </c>
       <c r="D129" t="n">
-        <v>3707.0668</v>
+        <v>2887.103</v>
       </c>
       <c r="E129" t="n">
-        <v>3721.277</v>
+        <v>2834.254000000001</v>
       </c>
     </row>
     <row r="130">
@@ -2569,16 +2569,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20170824</v>
+        <v>20110825</v>
       </c>
       <c r="C130" t="n">
         <v>2000</v>
       </c>
       <c r="D130" t="n">
-        <v>3755.8902</v>
+        <v>2818.701</v>
       </c>
       <c r="E130" t="n">
-        <v>3734.6458</v>
+        <v>2903.837</v>
       </c>
     </row>
     <row r="131">
@@ -2586,16 +2586,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20170831</v>
+        <v>20110901</v>
       </c>
       <c r="C131" t="n">
         <v>2000</v>
       </c>
       <c r="D131" t="n">
-        <v>3835.8394</v>
+        <v>2852.386</v>
       </c>
       <c r="E131" t="n">
-        <v>3822.0928</v>
+        <v>2834.535</v>
       </c>
     </row>
     <row r="132">
@@ -2603,16 +2603,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20170907</v>
+        <v>20110908</v>
       </c>
       <c r="C132" t="n">
         <v>2000</v>
       </c>
       <c r="D132" t="n">
-        <v>3851.688</v>
+        <v>2788.832000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>3829.8713</v>
+        <v>2756.105</v>
       </c>
     </row>
     <row r="133">
@@ -2620,16 +2620,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>20170914</v>
+        <v>20110915</v>
       </c>
       <c r="C133" t="n">
         <v>2000</v>
       </c>
       <c r="D133" t="n">
-        <v>3843.572</v>
+        <v>2734.552</v>
       </c>
       <c r="E133" t="n">
-        <v>3829.9554</v>
+        <v>2729.051</v>
       </c>
     </row>
     <row r="134">
@@ -2637,16 +2637,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>20170921</v>
+        <v>20110922</v>
       </c>
       <c r="C134" t="n">
         <v>2000</v>
       </c>
       <c r="D134" t="n">
-        <v>3843.2577</v>
+        <v>2745.146</v>
       </c>
       <c r="E134" t="n">
-        <v>3837.8176</v>
+        <v>2685.688</v>
       </c>
     </row>
     <row r="135">
@@ -2654,16 +2654,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>20170928</v>
+        <v>20110929</v>
       </c>
       <c r="C135" t="n">
         <v>2000</v>
       </c>
       <c r="D135" t="n">
-        <v>3821.5904</v>
+        <v>2593.559</v>
       </c>
       <c r="E135" t="n">
-        <v>3822.5386</v>
+        <v>2588.185</v>
       </c>
     </row>
     <row r="136">
@@ -2671,16 +2671,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>20171012</v>
+        <v>20111013</v>
       </c>
       <c r="C136" t="n">
         <v>2000</v>
       </c>
       <c r="D136" t="n">
-        <v>3902.0156</v>
+        <v>2636.863</v>
       </c>
       <c r="E136" t="n">
-        <v>3912.9536</v>
+        <v>2662.601</v>
       </c>
     </row>
     <row r="137">
@@ -2688,16 +2688,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>20171019</v>
+        <v>20111020</v>
       </c>
       <c r="C137" t="n">
         <v>2000</v>
       </c>
       <c r="D137" t="n">
-        <v>3940.5831</v>
+        <v>2566.603</v>
       </c>
       <c r="E137" t="n">
-        <v>3931.2495</v>
+        <v>2520.532</v>
       </c>
     </row>
     <row r="138">
@@ -2705,16 +2705,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>20171026</v>
+        <v>20111027</v>
       </c>
       <c r="C138" t="n">
         <v>2000</v>
       </c>
       <c r="D138" t="n">
-        <v>3980.0479</v>
+        <v>2658.428</v>
       </c>
       <c r="E138" t="n">
-        <v>3993.5752</v>
+        <v>2657.478</v>
       </c>
     </row>
     <row r="139">
@@ -2722,16 +2722,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>20171102</v>
+        <v>20111103</v>
       </c>
       <c r="C139" t="n">
         <v>2000</v>
       </c>
       <c r="D139" t="n">
-        <v>3994.0946</v>
+        <v>2752.627</v>
       </c>
       <c r="E139" t="n">
-        <v>3997.1343</v>
+        <v>2744.301</v>
       </c>
     </row>
     <row r="140">
@@ -2739,16 +2739,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>20171109</v>
+        <v>20111110</v>
       </c>
       <c r="C140" t="n">
         <v>2000</v>
       </c>
       <c r="D140" t="n">
-        <v>4043.0663</v>
+        <v>2720.836</v>
       </c>
       <c r="E140" t="n">
-        <v>4075.8998</v>
+        <v>2699.588</v>
       </c>
     </row>
     <row r="141">
@@ -2756,16 +2756,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>20171116</v>
+        <v>20111117</v>
       </c>
       <c r="C141" t="n">
         <v>2000</v>
       </c>
       <c r="D141" t="n">
-        <v>4063.4943</v>
+        <v>2671.953</v>
       </c>
       <c r="E141" t="n">
-        <v>4105.0122</v>
+        <v>2662.017000000001</v>
       </c>
     </row>
     <row r="142">
@@ -2773,16 +2773,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>20171123</v>
+        <v>20111124</v>
       </c>
       <c r="C142" t="n">
         <v>2000</v>
       </c>
       <c r="D142" t="n">
-        <v>4213.3781</v>
+        <v>2565.686</v>
       </c>
       <c r="E142" t="n">
-        <v>4102.3966</v>
+        <v>2588.915</v>
       </c>
     </row>
     <row r="143">
@@ -2790,16 +2790,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>20171130</v>
+        <v>20111201</v>
       </c>
       <c r="C143" t="n">
         <v>2000</v>
       </c>
       <c r="D143" t="n">
-        <v>4034.0091</v>
+        <v>2596.153</v>
       </c>
       <c r="E143" t="n">
-        <v>4006.0993</v>
+        <v>2583.613</v>
       </c>
     </row>
     <row r="144">
@@ -2807,16 +2807,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>20171207</v>
+        <v>20111208</v>
       </c>
       <c r="C144" t="n">
         <v>2000</v>
       </c>
       <c r="D144" t="n">
-        <v>4003.5826</v>
+        <v>2525.041</v>
       </c>
       <c r="E144" t="n">
-        <v>3971.0569</v>
+        <v>2525.001</v>
       </c>
     </row>
     <row r="145">
@@ -2824,16 +2824,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20171214</v>
+        <v>20111215</v>
       </c>
       <c r="C145" t="n">
         <v>2000</v>
       </c>
       <c r="D145" t="n">
-        <v>4050.9028</v>
+        <v>2382.441000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>4026.1516</v>
+        <v>2340.788</v>
       </c>
     </row>
     <row r="146">
@@ -2841,16 +2841,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>20171221</v>
+        <v>20111222</v>
       </c>
       <c r="C146" t="n">
         <v>2000</v>
       </c>
       <c r="D146" t="n">
-        <v>4023.076</v>
+        <v>2325.27</v>
       </c>
       <c r="E146" t="n">
-        <v>4067.8485</v>
+        <v>2341.335</v>
       </c>
     </row>
     <row r="147">
@@ -2858,16 +2858,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>20171228</v>
+        <v>20111229</v>
       </c>
       <c r="C147" t="n">
         <v>2000</v>
       </c>
       <c r="D147" t="n">
-        <v>3992.997</v>
+        <v>2297.288</v>
       </c>
       <c r="E147" t="n">
-        <v>4018.8974</v>
+        <v>2311.361</v>
       </c>
     </row>
     <row r="148">
@@ -2875,16 +2875,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>20180104</v>
+        <v>20120105</v>
       </c>
       <c r="C148" t="n">
         <v>2000</v>
       </c>
       <c r="D148" t="n">
-        <v>4114.1213</v>
+        <v>2290.78</v>
       </c>
       <c r="E148" t="n">
-        <v>4128.8119</v>
+        <v>2276.385</v>
       </c>
     </row>
     <row r="149">
@@ -2892,16 +2892,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20180111</v>
+        <v>20120112</v>
       </c>
       <c r="C149" t="n">
         <v>2000</v>
       </c>
       <c r="D149" t="n">
-        <v>4197.1136</v>
+        <v>2426.82</v>
       </c>
       <c r="E149" t="n">
-        <v>4205.5863</v>
+        <v>2435.219</v>
       </c>
     </row>
     <row r="150">
@@ -2909,16 +2909,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>20180118</v>
+        <v>20120119</v>
       </c>
       <c r="C150" t="n">
         <v>2000</v>
       </c>
       <c r="D150" t="n">
-        <v>4259.375</v>
+        <v>2423.857</v>
       </c>
       <c r="E150" t="n">
-        <v>4271.4168</v>
+        <v>2468.35</v>
       </c>
     </row>
     <row r="151">
@@ -2926,16 +2926,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>20180125</v>
+        <v>20120202</v>
       </c>
       <c r="C151" t="n">
         <v>2000</v>
       </c>
       <c r="D151" t="n">
-        <v>4381.9768</v>
+        <v>2437.47</v>
       </c>
       <c r="E151" t="n">
-        <v>4365.0794</v>
+        <v>2486.238</v>
       </c>
     </row>
     <row r="152">
@@ -2943,16 +2943,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20180201</v>
+        <v>20120209</v>
       </c>
       <c r="C152" t="n">
         <v>2000</v>
       </c>
       <c r="D152" t="n">
-        <v>4276.3425</v>
+        <v>2525.589</v>
       </c>
       <c r="E152" t="n">
-        <v>4245.8978</v>
+        <v>2529.231</v>
       </c>
     </row>
     <row r="153">
@@ -2960,16 +2960,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>20180208</v>
+        <v>20120216</v>
       </c>
       <c r="C153" t="n">
         <v>2000</v>
       </c>
       <c r="D153" t="n">
-        <v>4022.8802</v>
+        <v>2544.641</v>
       </c>
       <c r="E153" t="n">
-        <v>4012.0472</v>
+        <v>2536.074</v>
       </c>
     </row>
     <row r="154">
@@ -2977,16 +2977,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>20180222</v>
+        <v>20120223</v>
       </c>
       <c r="C154" t="n">
         <v>2000</v>
       </c>
       <c r="D154" t="n">
-        <v>4020.9731</v>
+        <v>2595.779</v>
       </c>
       <c r="E154" t="n">
-        <v>4052.7332</v>
+        <v>2606.256</v>
       </c>
     </row>
     <row r="155">
@@ -2994,16 +2994,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>20180301</v>
+        <v>20120301</v>
       </c>
       <c r="C155" t="n">
         <v>2000</v>
       </c>
       <c r="D155" t="n">
-        <v>3994.8686</v>
+        <v>2622.737</v>
       </c>
       <c r="E155" t="n">
-        <v>4049.0863</v>
+        <v>2633.345</v>
       </c>
     </row>
     <row r="156">
@@ -3011,16 +3011,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>20180308</v>
+        <v>20120308</v>
       </c>
       <c r="C156" t="n">
         <v>2000</v>
       </c>
       <c r="D156" t="n">
-        <v>4038.9527</v>
+        <v>2612.403</v>
       </c>
       <c r="E156" t="n">
-        <v>4077.6001</v>
+        <v>2635.791</v>
       </c>
     </row>
     <row r="157">
@@ -3028,16 +3028,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>20180315</v>
+        <v>20120315</v>
       </c>
       <c r="C157" t="n">
         <v>2000</v>
       </c>
       <c r="D157" t="n">
-        <v>4058.7058</v>
+        <v>2602.661</v>
       </c>
       <c r="E157" t="n">
-        <v>4096.1627</v>
+        <v>2585.546000000001</v>
       </c>
     </row>
     <row r="158">
@@ -3045,16 +3045,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>20180322</v>
+        <v>20120322</v>
       </c>
       <c r="C158" t="n">
         <v>2000</v>
       </c>
       <c r="D158" t="n">
-        <v>4062.0668</v>
+        <v>2586.938</v>
       </c>
       <c r="E158" t="n">
-        <v>4020.349</v>
+        <v>2583.747000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3062,16 +3062,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20180329</v>
+        <v>20120329</v>
       </c>
       <c r="C159" t="n">
         <v>2000</v>
       </c>
       <c r="D159" t="n">
-        <v>3854.5914</v>
+        <v>2463.688</v>
       </c>
       <c r="E159" t="n">
-        <v>3894.0498</v>
+        <v>2443.122000000001</v>
       </c>
     </row>
     <row r="160">
@@ -3079,16 +3079,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>20180412</v>
+        <v>20120405</v>
       </c>
       <c r="C160" t="n">
         <v>2000</v>
       </c>
       <c r="D160" t="n">
-        <v>3935.673</v>
+        <v>2449.208</v>
       </c>
       <c r="E160" t="n">
-        <v>3898.6354</v>
+        <v>2512.832000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3096,16 +3096,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>20180419</v>
+        <v>20120412</v>
       </c>
       <c r="C161" t="n">
         <v>2000</v>
       </c>
       <c r="D161" t="n">
-        <v>3774.784</v>
+        <v>2522.828</v>
       </c>
       <c r="E161" t="n">
-        <v>3811.843</v>
+        <v>2570.436</v>
       </c>
     </row>
     <row r="162">
@@ -3113,16 +3113,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>20180426</v>
+        <v>20120419</v>
       </c>
       <c r="C162" t="n">
         <v>2000</v>
       </c>
       <c r="D162" t="n">
-        <v>3823.3921</v>
+        <v>2598.329</v>
       </c>
       <c r="E162" t="n">
-        <v>3755.4941</v>
+        <v>2596.056</v>
       </c>
     </row>
     <row r="163">
@@ -3130,16 +3130,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>20180503</v>
+        <v>20120426</v>
       </c>
       <c r="C163" t="n">
         <v>2000</v>
       </c>
       <c r="D163" t="n">
-        <v>3756.1657</v>
+        <v>2632.718</v>
       </c>
       <c r="E163" t="n">
-        <v>3793.0001</v>
+        <v>2631.487</v>
       </c>
     </row>
     <row r="164">
@@ -3147,16 +3147,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>20180510</v>
+        <v>20120503</v>
       </c>
       <c r="C164" t="n">
         <v>2000</v>
       </c>
       <c r="D164" t="n">
-        <v>3882.8357</v>
+        <v>2679.517000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>3893.0565</v>
+        <v>2691.518</v>
       </c>
     </row>
     <row r="165">
@@ -3164,16 +3164,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>20180517</v>
+        <v>20120510</v>
       </c>
       <c r="C165" t="n">
         <v>2000</v>
       </c>
       <c r="D165" t="n">
-        <v>3895.4895</v>
+        <v>2657.87</v>
       </c>
       <c r="E165" t="n">
-        <v>3864.0507</v>
+        <v>2657.214</v>
       </c>
     </row>
     <row r="166">
@@ -3181,16 +3181,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>20180524</v>
+        <v>20120517</v>
       </c>
       <c r="C166" t="n">
         <v>2000</v>
       </c>
       <c r="D166" t="n">
-        <v>3853.2916</v>
+        <v>2577.961</v>
       </c>
       <c r="E166" t="n">
-        <v>3827.217</v>
+        <v>2613.942</v>
       </c>
     </row>
     <row r="167">
@@ -3198,16 +3198,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>20180531</v>
+        <v>20120524</v>
       </c>
       <c r="C167" t="n">
         <v>2000</v>
       </c>
       <c r="D167" t="n">
-        <v>3749.2954</v>
+        <v>2613.095</v>
       </c>
       <c r="E167" t="n">
-        <v>3802.3759</v>
+        <v>2595.26</v>
       </c>
     </row>
     <row r="168">
@@ -3215,16 +3215,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>20180607</v>
+        <v>20120531</v>
       </c>
       <c r="C168" t="n">
         <v>2000</v>
       </c>
       <c r="D168" t="n">
-        <v>3846.9367</v>
+        <v>2623.158</v>
       </c>
       <c r="E168" t="n">
-        <v>3831.0128</v>
+        <v>2632.042</v>
       </c>
     </row>
     <row r="169">
@@ -3232,16 +3232,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>20180614</v>
+        <v>20120607</v>
       </c>
       <c r="C169" t="n">
         <v>2000</v>
       </c>
       <c r="D169" t="n">
-        <v>3774.6396</v>
+        <v>2579.425</v>
       </c>
       <c r="E169" t="n">
-        <v>3773.3655</v>
+        <v>2542.184</v>
       </c>
     </row>
     <row r="170">
@@ -3249,16 +3249,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>20180621</v>
+        <v>20120614</v>
       </c>
       <c r="C170" t="n">
         <v>2000</v>
       </c>
       <c r="D170" t="n">
-        <v>3633.5558</v>
+        <v>2573.329</v>
       </c>
       <c r="E170" t="n">
-        <v>3592.965</v>
+        <v>2560.421000000001</v>
       </c>
     </row>
     <row r="171">
@@ -3266,16 +3266,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>20180628</v>
+        <v>20120621</v>
       </c>
       <c r="C171" t="n">
         <v>2000</v>
       </c>
       <c r="D171" t="n">
-        <v>3434.9441</v>
+        <v>2547.048</v>
       </c>
       <c r="E171" t="n">
-        <v>3423.5255</v>
+        <v>2512.185</v>
       </c>
     </row>
     <row r="172">
@@ -3283,16 +3283,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>20180705</v>
+        <v>20120628</v>
       </c>
       <c r="C172" t="n">
         <v>2000</v>
       </c>
       <c r="D172" t="n">
-        <v>3365.5547</v>
+        <v>2451.664</v>
       </c>
       <c r="E172" t="n">
-        <v>3342.4379</v>
+        <v>2425.729</v>
       </c>
     </row>
     <row r="173">
@@ -3300,16 +3300,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>20180712</v>
+        <v>20120705</v>
       </c>
       <c r="C173" t="n">
         <v>2000</v>
       </c>
       <c r="D173" t="n">
-        <v>3403.3302</v>
+        <v>2450.3</v>
       </c>
       <c r="E173" t="n">
-        <v>3481.0559</v>
+        <v>2430.37</v>
       </c>
     </row>
     <row r="174">
@@ -3317,16 +3317,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>20180719</v>
+        <v>20120712</v>
       </c>
       <c r="C174" t="n">
         <v>2000</v>
       </c>
       <c r="D174" t="n">
-        <v>3444.8032</v>
+        <v>2420.036</v>
       </c>
       <c r="E174" t="n">
-        <v>3428.343</v>
+        <v>2449.181</v>
       </c>
     </row>
     <row r="175">
@@ -3334,16 +3334,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>20180726</v>
+        <v>20120719</v>
       </c>
       <c r="C175" t="n">
         <v>2000</v>
       </c>
       <c r="D175" t="n">
-        <v>3583.3173</v>
+        <v>2407.443</v>
       </c>
       <c r="E175" t="n">
-        <v>3536.2456</v>
+        <v>2424.322</v>
       </c>
     </row>
     <row r="176">
@@ -3351,16 +3351,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>20180802</v>
+        <v>20120726</v>
       </c>
       <c r="C176" t="n">
         <v>2000</v>
       </c>
       <c r="D176" t="n">
-        <v>3434.3516</v>
+        <v>2360.134</v>
       </c>
       <c r="E176" t="n">
-        <v>3370.9579</v>
+        <v>2347.488</v>
       </c>
     </row>
     <row r="177">
@@ -3368,16 +3368,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>20180809</v>
+        <v>20120802</v>
       </c>
       <c r="C177" t="n">
         <v>2000</v>
       </c>
       <c r="D177" t="n">
-        <v>3303.4765</v>
+        <v>2354.073</v>
       </c>
       <c r="E177" t="n">
-        <v>3397.5298</v>
+        <v>2334.882</v>
       </c>
     </row>
     <row r="178">
@@ -3385,16 +3385,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>20180816</v>
+        <v>20120809</v>
       </c>
       <c r="C178" t="n">
         <v>2000</v>
       </c>
       <c r="D178" t="n">
-        <v>3251.8556</v>
+        <v>2388.43</v>
       </c>
       <c r="E178" t="n">
-        <v>3276.7276</v>
+        <v>2411.7</v>
       </c>
     </row>
     <row r="179">
@@ -3402,16 +3402,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>20180823</v>
+        <v>20120816</v>
       </c>
       <c r="C179" t="n">
         <v>2000</v>
       </c>
       <c r="D179" t="n">
-        <v>3308.4589</v>
+        <v>2327.91</v>
       </c>
       <c r="E179" t="n">
-        <v>3320.0257</v>
+        <v>2319.67</v>
       </c>
     </row>
     <row r="180">
@@ -3419,16 +3419,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>20180830</v>
+        <v>20120823</v>
       </c>
       <c r="C180" t="n">
         <v>2000</v>
       </c>
       <c r="D180" t="n">
-        <v>3385.8052</v>
+        <v>2298.18</v>
       </c>
       <c r="E180" t="n">
-        <v>3351.0942</v>
+        <v>2302.199</v>
       </c>
     </row>
     <row r="181">
@@ -3436,16 +3436,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>20180906</v>
+        <v>20120830</v>
       </c>
       <c r="C181" t="n">
         <v>2000</v>
       </c>
       <c r="D181" t="n">
-        <v>3286.6645</v>
+        <v>2204.515</v>
       </c>
       <c r="E181" t="n">
-        <v>3262.8808</v>
+        <v>2211.37</v>
       </c>
     </row>
     <row r="182">
@@ -3453,16 +3453,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>20180913</v>
+        <v>20120906</v>
       </c>
       <c r="C182" t="n">
         <v>2000</v>
       </c>
       <c r="D182" t="n">
-        <v>3239.6852</v>
+        <v>2204.436</v>
       </c>
       <c r="E182" t="n">
-        <v>3236.5662</v>
+        <v>2217.823</v>
       </c>
     </row>
     <row r="183">
@@ -3470,16 +3470,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>20180920</v>
+        <v>20120913</v>
       </c>
       <c r="C183" t="n">
         <v>2000</v>
       </c>
       <c r="D183" t="n">
-        <v>3314.8758</v>
+        <v>2316.679</v>
       </c>
       <c r="E183" t="n">
-        <v>3310.1258</v>
+        <v>2298.461</v>
       </c>
     </row>
     <row r="184">
@@ -3487,16 +3487,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>20180927</v>
+        <v>20120920</v>
       </c>
       <c r="C184" t="n">
         <v>2000</v>
       </c>
       <c r="D184" t="n">
-        <v>3415.9532</v>
+        <v>2236.191000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>3403.5902</v>
+        <v>2195.951</v>
       </c>
     </row>
     <row r="185">
@@ -3504,16 +3504,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>20181011</v>
+        <v>20120927</v>
       </c>
       <c r="C185" t="n">
         <v>2000</v>
       </c>
       <c r="D185" t="n">
-        <v>3179.5408</v>
+        <v>2186.004</v>
       </c>
       <c r="E185" t="n">
-        <v>3124.1139</v>
+        <v>2251.717</v>
       </c>
     </row>
     <row r="186">
@@ -3521,16 +3521,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>20181018</v>
+        <v>20121011</v>
       </c>
       <c r="C186" t="n">
         <v>2000</v>
       </c>
       <c r="D186" t="n">
-        <v>3097.7903</v>
+        <v>2315.897</v>
       </c>
       <c r="E186" t="n">
-        <v>3044.3918</v>
+        <v>2302.533</v>
       </c>
     </row>
     <row r="187">
@@ -3538,16 +3538,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>20181025</v>
+        <v>20121018</v>
       </c>
       <c r="C187" t="n">
         <v>2000</v>
       </c>
       <c r="D187" t="n">
-        <v>3107.8402</v>
+        <v>2307.487</v>
       </c>
       <c r="E187" t="n">
-        <v>3194.3084</v>
+        <v>2336.077</v>
       </c>
     </row>
     <row r="188">
@@ -3555,16 +3555,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>20181101</v>
+        <v>20121025</v>
       </c>
       <c r="C188" t="n">
         <v>2000</v>
       </c>
       <c r="D188" t="n">
-        <v>3185.202</v>
+        <v>2306.733</v>
       </c>
       <c r="E188" t="n">
-        <v>3177.0338</v>
+        <v>2291.239</v>
       </c>
     </row>
     <row r="189">
@@ -3572,16 +3572,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>20181108</v>
+        <v>20121101</v>
       </c>
       <c r="C189" t="n">
         <v>2000</v>
       </c>
       <c r="D189" t="n">
-        <v>3251.7281</v>
+        <v>2256.609</v>
       </c>
       <c r="E189" t="n">
-        <v>3212.7737</v>
+        <v>2297.884</v>
       </c>
     </row>
     <row r="190">
@@ -3589,16 +3589,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>20181115</v>
+        <v>20121108</v>
       </c>
       <c r="C190" t="n">
         <v>2000</v>
       </c>
       <c r="D190" t="n">
-        <v>3201.2814</v>
+        <v>2269.582000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>3242.3715</v>
+        <v>2245.405</v>
       </c>
     </row>
     <row r="191">
@@ -3606,16 +3606,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>20181122</v>
+        <v>20121115</v>
       </c>
       <c r="C191" t="n">
         <v>2000</v>
       </c>
       <c r="D191" t="n">
-        <v>3232.9731</v>
+        <v>2210.751</v>
       </c>
       <c r="E191" t="n">
-        <v>3214.4273</v>
+        <v>2193.623</v>
       </c>
     </row>
     <row r="192">
@@ -3623,16 +3623,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>20181129</v>
+        <v>20121122</v>
       </c>
       <c r="C192" t="n">
         <v>2000</v>
       </c>
       <c r="D192" t="n">
-        <v>3198.8259</v>
+        <v>2181.179</v>
       </c>
       <c r="E192" t="n">
-        <v>3137.6542</v>
+        <v>2177.546000000001</v>
       </c>
     </row>
     <row r="193">
@@ -3640,16 +3640,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>20181206</v>
+        <v>20121129</v>
       </c>
       <c r="C193" t="n">
         <v>2000</v>
       </c>
       <c r="D193" t="n">
-        <v>3218.113</v>
+        <v>2128.803</v>
       </c>
       <c r="E193" t="n">
-        <v>3181.673</v>
+        <v>2115.676</v>
       </c>
     </row>
     <row r="194">
@@ -3657,16 +3657,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>20181213</v>
+        <v>20121206</v>
       </c>
       <c r="C194" t="n">
         <v>2000</v>
       </c>
       <c r="D194" t="n">
-        <v>3178.891</v>
+        <v>2205.605</v>
       </c>
       <c r="E194" t="n">
-        <v>3219.6924</v>
+        <v>2203.602000000001</v>
       </c>
     </row>
     <row r="195">
@@ -3674,16 +3674,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>20181220</v>
+        <v>20121213</v>
       </c>
       <c r="C195" t="n">
         <v>2000</v>
       </c>
       <c r="D195" t="n">
-        <v>3083.5441</v>
+        <v>2260.601</v>
       </c>
       <c r="E195" t="n">
-        <v>3067.4169</v>
+        <v>2242.635</v>
       </c>
     </row>
     <row r="196">
@@ -3691,16 +3691,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>20181227</v>
+        <v>20121220</v>
       </c>
       <c r="C196" t="n">
         <v>2000</v>
       </c>
       <c r="D196" t="n">
-        <v>3042.9491</v>
+        <v>2361.322</v>
       </c>
       <c r="E196" t="n">
-        <v>2990.5057</v>
+        <v>2384.816000000001</v>
       </c>
     </row>
     <row r="197">
@@ -3708,16 +3708,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>20190103</v>
+        <v>20121227</v>
       </c>
       <c r="C197" t="n">
         <v>2000</v>
       </c>
       <c r="D197" t="n">
-        <v>2963.0186</v>
+        <v>2464.779</v>
       </c>
       <c r="E197" t="n">
-        <v>2964.8421</v>
+        <v>2444.594</v>
       </c>
     </row>
     <row r="198">
@@ -3725,16 +3725,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>20190110</v>
+        <v>20130110</v>
       </c>
       <c r="C198" t="n">
         <v>2000</v>
       </c>
       <c r="D198" t="n">
-        <v>3077.4817</v>
+        <v>2525.59</v>
       </c>
       <c r="E198" t="n">
-        <v>3072.6864</v>
+        <v>2530.569</v>
       </c>
     </row>
     <row r="199">
@@ -3742,16 +3742,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>20190117</v>
+        <v>20130117</v>
       </c>
       <c r="C199" t="n">
         <v>2000</v>
       </c>
       <c r="D199" t="n">
-        <v>3132.6285</v>
+        <v>2570.711</v>
       </c>
       <c r="E199" t="n">
-        <v>3111.4168</v>
+        <v>2552.758</v>
       </c>
     </row>
     <row r="200">
@@ -3759,16 +3759,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>20190124</v>
+        <v>20130124</v>
       </c>
       <c r="C200" t="n">
         <v>2000</v>
       </c>
       <c r="D200" t="n">
-        <v>3146.6046</v>
+        <v>2606.427</v>
       </c>
       <c r="E200" t="n">
-        <v>3158.7817</v>
+        <v>2582.755</v>
       </c>
     </row>
     <row r="201">
@@ -3776,16 +3776,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>20190131</v>
+        <v>20130131</v>
       </c>
       <c r="C201" t="n">
         <v>2000</v>
       </c>
       <c r="D201" t="n">
-        <v>3182.6987</v>
+        <v>2690.951</v>
       </c>
       <c r="E201" t="n">
-        <v>3201.6331</v>
+        <v>2686.882</v>
       </c>
     </row>
     <row r="202">
@@ -3793,16 +3793,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>20190214</v>
+        <v>20130207</v>
       </c>
       <c r="C202" t="n">
         <v>2000</v>
       </c>
       <c r="D202" t="n">
-        <v>3392.8547</v>
+        <v>2771.53</v>
       </c>
       <c r="E202" t="n">
-        <v>3402.1403</v>
+        <v>2759.87</v>
       </c>
     </row>
     <row r="203">
@@ -3810,16 +3810,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>20190221</v>
+        <v>20130221</v>
       </c>
       <c r="C203" t="n">
         <v>2000</v>
       </c>
       <c r="D203" t="n">
-        <v>3450.1411</v>
+        <v>2675.741</v>
       </c>
       <c r="E203" t="n">
-        <v>3442.7056</v>
+        <v>2610.549</v>
       </c>
     </row>
     <row r="204">
@@ -3827,16 +3827,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>20190228</v>
+        <v>20130228</v>
       </c>
       <c r="C204" t="n">
         <v>2000</v>
       </c>
       <c r="D204" t="n">
-        <v>3675.2642</v>
+        <v>2611.94</v>
       </c>
       <c r="E204" t="n">
-        <v>3669.3703</v>
+        <v>2673.327</v>
       </c>
     </row>
     <row r="205">
@@ -3844,16 +3844,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>20190307</v>
+        <v>20130307</v>
       </c>
       <c r="C205" t="n">
         <v>2000</v>
       </c>
       <c r="D205" t="n">
-        <v>3841.1456</v>
+        <v>2639.783</v>
       </c>
       <c r="E205" t="n">
-        <v>3808.8497</v>
+        <v>2619.479</v>
       </c>
     </row>
     <row r="206">
@@ -3861,16 +3861,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>20190314</v>
+        <v>20130314</v>
       </c>
       <c r="C206" t="n">
         <v>2000</v>
       </c>
       <c r="D206" t="n">
-        <v>3710.2934</v>
+        <v>2517.745</v>
       </c>
       <c r="E206" t="n">
-        <v>3698.4858</v>
+        <v>2534.273</v>
       </c>
     </row>
     <row r="207">
@@ -3878,16 +3878,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>20190321</v>
+        <v>20130321</v>
       </c>
       <c r="C207" t="n">
         <v>2000</v>
       </c>
       <c r="D207" t="n">
-        <v>3840.2783</v>
+        <v>2611.58</v>
       </c>
       <c r="E207" t="n">
-        <v>3836.8913</v>
+        <v>2614.988</v>
       </c>
     </row>
     <row r="208">
@@ -3895,16 +3895,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>20190328</v>
+        <v>20130328</v>
       </c>
       <c r="C208" t="n">
         <v>2000</v>
       </c>
       <c r="D208" t="n">
-        <v>3731.0612</v>
+        <v>2535.988</v>
       </c>
       <c r="E208" t="n">
-        <v>3728.3953</v>
+        <v>2499.302</v>
       </c>
     </row>
     <row r="209">
@@ -3912,16 +3912,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>20190404</v>
+        <v>20130411</v>
       </c>
       <c r="C209" t="n">
         <v>2000</v>
       </c>
       <c r="D209" t="n">
-        <v>4039.7415</v>
+        <v>2502.5</v>
       </c>
       <c r="E209" t="n">
-        <v>4062.2309</v>
+        <v>2477.876</v>
       </c>
     </row>
     <row r="210">
@@ -3929,16 +3929,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>20190411</v>
+        <v>20130418</v>
       </c>
       <c r="C210" t="n">
         <v>2000</v>
       </c>
       <c r="D210" t="n">
-        <v>4083.4618</v>
+        <v>2440.707000000001</v>
       </c>
       <c r="E210" t="n">
-        <v>3997.5778</v>
+        <v>2464.851</v>
       </c>
     </row>
     <row r="211">
@@ -3946,16 +3946,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>20190418</v>
+        <v>20130425</v>
       </c>
       <c r="C211" t="n">
         <v>2000</v>
       </c>
       <c r="D211" t="n">
-        <v>4085.1148</v>
+        <v>2486.857</v>
       </c>
       <c r="E211" t="n">
-        <v>4072.0753</v>
+        <v>2467.875</v>
       </c>
     </row>
     <row r="212">
@@ -3963,16 +3963,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>20190425</v>
+        <v>20130502</v>
       </c>
       <c r="C212" t="n">
         <v>2000</v>
       </c>
       <c r="D212" t="n">
-        <v>4013.6027</v>
+        <v>2434.603</v>
       </c>
       <c r="E212" t="n">
-        <v>3941.816</v>
+        <v>2449.639</v>
       </c>
     </row>
     <row r="213">
@@ -3980,16 +3980,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>20190509</v>
+        <v>20130509</v>
       </c>
       <c r="C213" t="n">
         <v>2000</v>
       </c>
       <c r="D213" t="n">
-        <v>3637.346</v>
+        <v>2542.374</v>
       </c>
       <c r="E213" t="n">
-        <v>3599.7001</v>
+        <v>2527.794</v>
       </c>
     </row>
     <row r="214">
@@ -3997,16 +3997,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>20190516</v>
+        <v>20130516</v>
       </c>
       <c r="C214" t="n">
         <v>2000</v>
       </c>
       <c r="D214" t="n">
-        <v>3720.039</v>
+        <v>2501.117</v>
       </c>
       <c r="E214" t="n">
-        <v>3743.9635</v>
+        <v>2552.709</v>
       </c>
     </row>
     <row r="215">
@@ -4014,16 +4014,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>20190523</v>
+        <v>20130523</v>
       </c>
       <c r="C215" t="n">
         <v>2000</v>
       </c>
       <c r="D215" t="n">
-        <v>3629.5284</v>
+        <v>2604.93</v>
       </c>
       <c r="E215" t="n">
-        <v>3583.9646</v>
+        <v>2582.849</v>
       </c>
     </row>
     <row r="216">
@@ -4031,16 +4031,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>20190530</v>
+        <v>20130530</v>
       </c>
       <c r="C216" t="n">
         <v>2000</v>
       </c>
       <c r="D216" t="n">
-        <v>3648.8495</v>
+        <v>2633.955</v>
       </c>
       <c r="E216" t="n">
-        <v>3641.1833</v>
+        <v>2634.323</v>
       </c>
     </row>
     <row r="217">
@@ -4048,16 +4048,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>20190606</v>
+        <v>20130606</v>
       </c>
       <c r="C217" t="n">
         <v>2000</v>
       </c>
       <c r="D217" t="n">
-        <v>3601.0356</v>
+        <v>2552.817</v>
       </c>
       <c r="E217" t="n">
-        <v>3564.6778</v>
+        <v>2527.845</v>
       </c>
     </row>
     <row r="218">
@@ -4065,16 +4065,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>20190613</v>
+        <v>20130613</v>
       </c>
       <c r="C218" t="n">
         <v>2000</v>
       </c>
       <c r="D218" t="n">
-        <v>3689.5834</v>
+        <v>2448.717</v>
       </c>
       <c r="E218" t="n">
-        <v>3685.3933</v>
+        <v>2399.937</v>
       </c>
     </row>
     <row r="219">
@@ -4082,16 +4082,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>20190620</v>
+        <v>20130620</v>
       </c>
       <c r="C219" t="n">
         <v>2000</v>
       </c>
       <c r="D219" t="n">
-        <v>3718.9416</v>
+        <v>2386.104</v>
       </c>
       <c r="E219" t="n">
-        <v>3828.5183</v>
+        <v>2321.466</v>
       </c>
     </row>
     <row r="220">
@@ -4099,16 +4099,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>20190627</v>
+        <v>20130627</v>
       </c>
       <c r="C220" t="n">
         <v>2000</v>
       </c>
       <c r="D220" t="n">
-        <v>3807.5376</v>
+        <v>2172.848</v>
       </c>
       <c r="E220" t="n">
-        <v>3834.8172</v>
+        <v>2160.735</v>
       </c>
     </row>
     <row r="221">
@@ -4116,16 +4116,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>20190704</v>
+        <v>20130704</v>
       </c>
       <c r="C221" t="n">
         <v>2000</v>
       </c>
       <c r="D221" t="n">
-        <v>3895.1978</v>
+        <v>2187.181</v>
       </c>
       <c r="E221" t="n">
-        <v>3873.1019</v>
+        <v>2221.979</v>
       </c>
     </row>
     <row r="222">
@@ -4133,16 +4133,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>20190711</v>
+        <v>20130711</v>
       </c>
       <c r="C222" t="n">
         <v>2000</v>
       </c>
       <c r="D222" t="n">
-        <v>3806.1855</v>
+        <v>2232.157</v>
       </c>
       <c r="E222" t="n">
-        <v>3785.221</v>
+        <v>2326.688</v>
       </c>
     </row>
     <row r="223">
@@ -4150,16 +4150,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>20190718</v>
+        <v>20130718</v>
       </c>
       <c r="C223" t="n">
         <v>2000</v>
       </c>
       <c r="D223" t="n">
-        <v>3793.1893</v>
+        <v>2272.947</v>
       </c>
       <c r="E223" t="n">
-        <v>3768.4019</v>
+        <v>2245.328</v>
       </c>
     </row>
     <row r="224">
@@ -4167,16 +4167,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>20190725</v>
+        <v>20130725</v>
       </c>
       <c r="C224" t="n">
         <v>2000</v>
       </c>
       <c r="D224" t="n">
-        <v>3821.3898</v>
+        <v>2255.223</v>
       </c>
       <c r="E224" t="n">
-        <v>3851.0665</v>
+        <v>2237.683</v>
       </c>
     </row>
     <row r="225">
@@ -4184,16 +4184,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>20190801</v>
+        <v>20130801</v>
       </c>
       <c r="C225" t="n">
         <v>2000</v>
       </c>
       <c r="D225" t="n">
-        <v>3819.3242</v>
+        <v>2206.004</v>
       </c>
       <c r="E225" t="n">
-        <v>3803.4694</v>
+        <v>2245.364</v>
       </c>
     </row>
     <row r="226">
@@ -4201,16 +4201,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>20190808</v>
+        <v>20130808</v>
       </c>
       <c r="C226" t="n">
         <v>2000</v>
       </c>
       <c r="D226" t="n">
-        <v>3651.3571</v>
+        <v>2277.253</v>
       </c>
       <c r="E226" t="n">
-        <v>3669.2936</v>
+        <v>2276.782</v>
       </c>
     </row>
     <row r="227">
@@ -4218,16 +4218,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>20190815</v>
+        <v>20130815</v>
       </c>
       <c r="C227" t="n">
         <v>2000</v>
       </c>
       <c r="D227" t="n">
-        <v>3618.0092</v>
+        <v>2348.839</v>
       </c>
       <c r="E227" t="n">
-        <v>3694.0006</v>
+        <v>2321.576</v>
       </c>
     </row>
     <row r="228">
@@ -4235,16 +4235,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>20190822</v>
+        <v>20130822</v>
       </c>
       <c r="C228" t="n">
         <v>2000</v>
       </c>
       <c r="D228" t="n">
-        <v>3793.8552</v>
+        <v>2302.668</v>
       </c>
       <c r="E228" t="n">
-        <v>3793.5061</v>
+        <v>2303.932</v>
       </c>
     </row>
     <row r="229">
@@ -4252,16 +4252,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>20190829</v>
+        <v>20130829</v>
       </c>
       <c r="C229" t="n">
         <v>2000</v>
       </c>
       <c r="D229" t="n">
-        <v>3805.494</v>
+        <v>2338.564</v>
       </c>
       <c r="E229" t="n">
-        <v>3790.1867</v>
+        <v>2318.311</v>
       </c>
     </row>
     <row r="230">
@@ -4269,16 +4269,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>20190905</v>
+        <v>20130905</v>
       </c>
       <c r="C230" t="n">
         <v>2000</v>
       </c>
       <c r="D230" t="n">
-        <v>3909.2087</v>
+        <v>2350.927</v>
       </c>
       <c r="E230" t="n">
-        <v>3925.323</v>
+        <v>2341.735</v>
       </c>
     </row>
     <row r="231">
@@ -4286,16 +4286,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>20190912</v>
+        <v>20130912</v>
       </c>
       <c r="C231" t="n">
         <v>2000</v>
       </c>
       <c r="D231" t="n">
-        <v>3944.6917</v>
+        <v>2480.468</v>
       </c>
       <c r="E231" t="n">
-        <v>3972.3799</v>
+        <v>2507.455</v>
       </c>
     </row>
     <row r="232">
@@ -4303,16 +4303,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>20190919</v>
+        <v>20130926</v>
       </c>
       <c r="C232" t="n">
         <v>2000</v>
       </c>
       <c r="D232" t="n">
-        <v>3923.9631</v>
+        <v>2422.631</v>
       </c>
       <c r="E232" t="n">
-        <v>3924.3823</v>
+        <v>2384.443</v>
       </c>
     </row>
     <row r="233">
@@ -4320,16 +4320,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>20190926</v>
+        <v>20131010</v>
       </c>
       <c r="C233" t="n">
         <v>2000</v>
       </c>
       <c r="D233" t="n">
-        <v>3884.7022</v>
+        <v>2455.64</v>
       </c>
       <c r="E233" t="n">
-        <v>3841.1388</v>
+        <v>2429.317</v>
       </c>
     </row>
     <row r="234">
@@ -4337,16 +4337,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>20191010</v>
+        <v>20131017</v>
       </c>
       <c r="C234" t="n">
         <v>2000</v>
       </c>
       <c r="D234" t="n">
-        <v>3838.4865</v>
+        <v>2432.645</v>
       </c>
       <c r="E234" t="n">
-        <v>3874.6391</v>
+        <v>2413.33</v>
       </c>
     </row>
     <row r="235">
@@ -4354,16 +4354,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>20191017</v>
+        <v>20131024</v>
       </c>
       <c r="C235" t="n">
         <v>2000</v>
       </c>
       <c r="D235" t="n">
-        <v>3929.386</v>
+        <v>2412.235</v>
       </c>
       <c r="E235" t="n">
-        <v>3925.2216</v>
+        <v>2400.511</v>
       </c>
     </row>
     <row r="236">
@@ -4371,16 +4371,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>20191024</v>
+        <v>20131031</v>
       </c>
       <c r="C236" t="n">
         <v>2000</v>
       </c>
       <c r="D236" t="n">
-        <v>3877.9239</v>
+        <v>2398.395</v>
       </c>
       <c r="E236" t="n">
-        <v>3870.6678</v>
+        <v>2373.718</v>
       </c>
     </row>
     <row r="237">
@@ -4388,15 +4388,4996 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>20131107</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2351.871</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2340.552</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>20131114</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2291.269</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2304.501</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>20131121</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2412.451</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2409.989</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>20131128</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2419.15</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2439.53</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>20131205</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2476.453</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2468.197</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>20131212</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2406.766</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2410.015</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>20131219</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2366.205</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2332.41</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>20131226</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2299.972</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2265.334</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>20140102</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2323.433</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2321.978</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>20140109</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2236.967</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2222.221</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>20140116</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2209.448</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2211.844</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>20140123</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2242.245</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2231.889</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>20140130</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2223.163</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2202.45</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>20140213</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2288.451</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2279.554</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>20140220</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2314.088</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2287.436</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>20140227</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2170.81</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2154.108</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>20140306</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2159.397</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2173.634</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>20140313</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2119.547</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2140.333</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>20140320</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2116.185</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2086.967</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>20140327</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2168.344</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2155.707000000001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>20140403</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2188.642000000001</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2165.008</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>20140410</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2241.452</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2273.761</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>20140417</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2238.779</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2224.803</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>20140424</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2192.769</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2190.474</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>20140508</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2132.036</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2135.496</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>20140515</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2169.278</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2144.084</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>20140522</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2134.087</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2130.868</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>20140529</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2171.26</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2155.164</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>20140605</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2126.607</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2150.602000000001</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>20140612</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2156.761</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2153.41</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>20140619</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2161.426</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2126.907</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>20140626</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2135.156</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2149.076</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>20140703</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2169.003</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2180.192</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>20140710</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2146.601</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2142.847</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>20140717</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2166.831</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2157.068</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>20140724</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2199.833</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2237.015</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>20140731</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2321.967</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2350.251</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>20140807</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2363.608</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2327.457000000001</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>20140814</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2357.198</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2335.945</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>20140821</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2365.731</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2354.244</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>20140828</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2328.059</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2311.278</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>20140904</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2411.934</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2426.224</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>20140911</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2430.678</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2423.454</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>20140918</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2396.379</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2408.664</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>20140925</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2453.423</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2436.965</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>20141009</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2480.197</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2481.955</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>20141016</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2448.968</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2444.395</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>20141023</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2415.44</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2395.936</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>20141030</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2450.361</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2468.925</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>20141106</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2505.167</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2506.067</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>20141113</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2597.389</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2579.75</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>20141120</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2528.78</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2537.099</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>20141127</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2737.03</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2754.49</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>20141204</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2975.403</v>
+      </c>
+      <c r="E290" t="n">
+        <v>3104.351</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>20141211</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D291" t="n">
+        <v>3185.161</v>
+      </c>
+      <c r="E291" t="n">
+        <v>3183.012</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>20141218</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3359.09</v>
+      </c>
+      <c r="E292" t="n">
+        <v>3345.927</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>20141225</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D293" t="n">
+        <v>3254.48</v>
+      </c>
+      <c r="E293" t="n">
+        <v>3335.419000000001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>20150108</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D294" t="n">
+        <v>3650.073</v>
+      </c>
+      <c r="E294" t="n">
+        <v>3559.259</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>20150115</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>3501.719</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3604.121</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>20150122</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>3551.052</v>
+      </c>
+      <c r="E296" t="n">
+        <v>3567.613</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>20150129</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3474.915</v>
+      </c>
+      <c r="E297" t="n">
+        <v>3481.798</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>20150205</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3487.951</v>
+      </c>
+      <c r="E298" t="n">
+        <v>3366.946</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>20150212</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D299" t="n">
+        <v>3435.361</v>
+      </c>
+      <c r="E299" t="n">
+        <v>3442.874000000001</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>20150226</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3473.713</v>
+      </c>
+      <c r="E300" t="n">
+        <v>3566.295</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>20150305</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3513.249000000001</v>
+      </c>
+      <c r="E301" t="n">
+        <v>3496.344</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>20150312</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3557.686</v>
+      </c>
+      <c r="E302" t="n">
+        <v>3592.844</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>20150319</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3851.249</v>
+      </c>
+      <c r="E303" t="n">
+        <v>3839.739</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>20150326</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3921.745</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3949.999</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>20150402</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>4149.946</v>
+      </c>
+      <c r="E305" t="n">
+        <v>4124.776</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>20150409</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>4316.958</v>
+      </c>
+      <c r="E306" t="n">
+        <v>4262.138</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>20150416</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D307" t="n">
+        <v>4355.491</v>
+      </c>
+      <c r="E307" t="n">
+        <v>4513.545999999998</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>20150423</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D308" t="n">
+        <v>4764.481</v>
+      </c>
+      <c r="E308" t="n">
+        <v>4740.892</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>20150430</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D309" t="n">
+        <v>4788.412</v>
+      </c>
+      <c r="E309" t="n">
+        <v>4749.886</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>20150507</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D310" t="n">
+        <v>4520.818</v>
+      </c>
+      <c r="E310" t="n">
+        <v>4470.089</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>20150514</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D311" t="n">
+        <v>4717.955</v>
+      </c>
+      <c r="E311" t="n">
+        <v>4700.778</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>20150521</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D312" t="n">
+        <v>4768.689</v>
+      </c>
+      <c r="E312" t="n">
+        <v>4840.976</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>20150528</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D313" t="n">
+        <v>5174.101</v>
+      </c>
+      <c r="E313" t="n">
+        <v>4834.007000000001</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>20150604</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D314" t="n">
+        <v>5156.012</v>
+      </c>
+      <c r="E314" t="n">
+        <v>5181.416</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>20150611</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D315" t="n">
+        <v>5305.1407</v>
+      </c>
+      <c r="E315" t="n">
+        <v>5306.59</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>20150618</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D316" t="n">
+        <v>5107.6946</v>
+      </c>
+      <c r="E316" t="n">
+        <v>4930.5491</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>20150625</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D317" t="n">
+        <v>4906.2416</v>
+      </c>
+      <c r="E317" t="n">
+        <v>4706.5159</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>20150702</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D318" t="n">
+        <v>4287.7344</v>
+      </c>
+      <c r="E318" t="n">
+        <v>4107.9961</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>20150709</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3621.6804</v>
+      </c>
+      <c r="E319" t="n">
+        <v>3897.6263</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>20150716</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D320" t="n">
+        <v>3949.639</v>
+      </c>
+      <c r="E320" t="n">
+        <v>3997.3555</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>20150723</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D321" t="n">
+        <v>4158.932</v>
+      </c>
+      <c r="E321" t="n">
+        <v>4250.805</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>20150730</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3915.7795</v>
+      </c>
+      <c r="E322" t="n">
+        <v>3815.4118</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>20150806</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3802.928</v>
+      </c>
+      <c r="E323" t="n">
+        <v>3831.8516</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>20150813</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D324" t="n">
+        <v>4010.0129</v>
+      </c>
+      <c r="E324" t="n">
+        <v>4075.463</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>20150820</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3848.4034</v>
+      </c>
+      <c r="E325" t="n">
+        <v>3761.4541</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>20150827</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3092.8123</v>
+      </c>
+      <c r="E326" t="n">
+        <v>3205.6375</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>20150910</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D327" t="n">
+        <v>3349.2806</v>
+      </c>
+      <c r="E327" t="n">
+        <v>3357.561</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>20150917</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3287.6567</v>
+      </c>
+      <c r="E328" t="n">
+        <v>3236.9986</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>20150924</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3278.8962</v>
+      </c>
+      <c r="E329" t="n">
+        <v>3284.9991</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>20151008</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D330" t="n">
+        <v>3324.981</v>
+      </c>
+      <c r="E330" t="n">
+        <v>3296.482</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>20151015</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D331" t="n">
+        <v>3403.3891</v>
+      </c>
+      <c r="E331" t="n">
+        <v>3486.815</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>20151022</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3453.2013</v>
+      </c>
+      <c r="E332" t="n">
+        <v>3524.5339</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>20151029</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3539.9777</v>
+      </c>
+      <c r="E333" t="n">
+        <v>3533.3065</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>20151105</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3630.7817</v>
+      </c>
+      <c r="E334" t="n">
+        <v>3705.9697</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>20151112</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3841.7376</v>
+      </c>
+      <c r="E335" t="n">
+        <v>3795.3241</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>20151119</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3725.622</v>
+      </c>
+      <c r="E336" t="n">
+        <v>3774.969</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>20151126</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3795.2454</v>
+      </c>
+      <c r="E337" t="n">
+        <v>3759.4286</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>20151203</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3709.5469</v>
+      </c>
+      <c r="E338" t="n">
+        <v>3749.2985</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>20151210</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D339" t="n">
+        <v>3634.366</v>
+      </c>
+      <c r="E339" t="n">
+        <v>3623.0842</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>20151217</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D340" t="n">
+        <v>3712.7833</v>
+      </c>
+      <c r="E340" t="n">
+        <v>3755.8881</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>20151224</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D341" t="n">
+        <v>3858.1348</v>
+      </c>
+      <c r="E341" t="n">
+        <v>3829.4022</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>20151231</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3760.9039</v>
+      </c>
+      <c r="E342" t="n">
+        <v>3731.0047</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>20160107</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D343" t="n">
+        <v>3481.1499</v>
+      </c>
+      <c r="E343" t="n">
+        <v>3294.3839</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>20160114</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D344" t="n">
+        <v>3076.6445</v>
+      </c>
+      <c r="E344" t="n">
+        <v>3221.5714</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>20160121</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D345" t="n">
+        <v>3136.3841</v>
+      </c>
+      <c r="E345" t="n">
+        <v>3081.3454</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>20160128</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2909.3341</v>
+      </c>
+      <c r="E346" t="n">
+        <v>2853.7562</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>20160204</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D347" t="n">
+        <v>2960.3335</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2984.7598</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>20160218</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D348" t="n">
+        <v>3079.5272</v>
+      </c>
+      <c r="E348" t="n">
+        <v>3053.6985</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>20160225</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D349" t="n">
+        <v>3104.4097</v>
+      </c>
+      <c r="E349" t="n">
+        <v>2918.7501</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>20160303</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3050.3886</v>
+      </c>
+      <c r="E350" t="n">
+        <v>3058.4219</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>20160310</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D351" t="n">
+        <v>3056.2104</v>
+      </c>
+      <c r="E351" t="n">
+        <v>3013.1457</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>20160317</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D352" t="n">
+        <v>3096.8076</v>
+      </c>
+      <c r="E352" t="n">
+        <v>3124.2039</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>20160324</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>3211.496</v>
+      </c>
+      <c r="E353" t="n">
+        <v>3181.8507</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>20160331</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>3229.1995</v>
+      </c>
+      <c r="E354" t="n">
+        <v>3218.0879</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>20160407</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D355" t="n">
+        <v>3266.2883</v>
+      </c>
+      <c r="E355" t="n">
+        <v>3209.2902</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>20160414</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D356" t="n">
+        <v>3277.0982</v>
+      </c>
+      <c r="E356" t="n">
+        <v>3275.8321</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>20160421</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D357" t="n">
+        <v>3160.7958</v>
+      </c>
+      <c r="E357" t="n">
+        <v>3160.6033</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>20160428</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D358" t="n">
+        <v>3169.3333</v>
+      </c>
+      <c r="E358" t="n">
+        <v>3160.5809</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>20160505</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D359" t="n">
+        <v>3204.1686</v>
+      </c>
+      <c r="E359" t="n">
+        <v>3213.9199</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>20160512</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D360" t="n">
+        <v>3059.3831</v>
+      </c>
+      <c r="E360" t="n">
+        <v>3090.1372</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>20160519</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D361" t="n">
+        <v>3060.3426</v>
+      </c>
+      <c r="E361" t="n">
+        <v>3062.5002</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>20160526</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D362" t="n">
+        <v>3056.6004</v>
+      </c>
+      <c r="E362" t="n">
+        <v>3064.2111</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>20160602</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D363" t="n">
+        <v>3158.0259</v>
+      </c>
+      <c r="E363" t="n">
+        <v>3167.0997</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>20160616</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D364" t="n">
+        <v>3104.3619</v>
+      </c>
+      <c r="E364" t="n">
+        <v>3094.6748</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>20160623</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D365" t="n">
+        <v>3129.7207</v>
+      </c>
+      <c r="E365" t="n">
+        <v>3117.3168</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>20160630</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D366" t="n">
+        <v>3152.8331</v>
+      </c>
+      <c r="E366" t="n">
+        <v>3153.921</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>20160707</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D367" t="n">
+        <v>3206.5507</v>
+      </c>
+      <c r="E367" t="n">
+        <v>3209.9542</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>20160714</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D368" t="n">
+        <v>3277.4816</v>
+      </c>
+      <c r="E368" t="n">
+        <v>3276.7637</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>20160721</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D369" t="n">
+        <v>3238.3367</v>
+      </c>
+      <c r="E369" t="n">
+        <v>3252.5227</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>20160728</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D370" t="n">
+        <v>3204.4645</v>
+      </c>
+      <c r="E370" t="n">
+        <v>3221.1365</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>20160804</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D371" t="n">
+        <v>3190.546</v>
+      </c>
+      <c r="E371" t="n">
+        <v>3201.2888</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>20160811</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D372" t="n">
+        <v>3239.5583</v>
+      </c>
+      <c r="E372" t="n">
+        <v>3233.3604</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>20160818</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D373" t="n">
+        <v>3369.9472</v>
+      </c>
+      <c r="E373" t="n">
+        <v>3364.4851</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>20160825</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D374" t="n">
+        <v>3314.0846</v>
+      </c>
+      <c r="E374" t="n">
+        <v>3308.9721</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>20160901</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D375" t="n">
+        <v>3326.7389</v>
+      </c>
+      <c r="E375" t="n">
+        <v>3301.5767</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>20160908</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D376" t="n">
+        <v>3338.0082</v>
+      </c>
+      <c r="E376" t="n">
+        <v>3339.564000000001</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>20160922</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D377" t="n">
+        <v>3281.4718</v>
+      </c>
+      <c r="E377" t="n">
+        <v>3291.1211</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>20160929</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D378" t="n">
+        <v>3234.857</v>
+      </c>
+      <c r="E378" t="n">
+        <v>3244.3874</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>20161013</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D379" t="n">
+        <v>3299.1557</v>
+      </c>
+      <c r="E379" t="n">
+        <v>3302.6455</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>20161020</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D380" t="n">
+        <v>3317.1792</v>
+      </c>
+      <c r="E380" t="n">
+        <v>3318.6044</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>20161027</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D381" t="n">
+        <v>3351.4603</v>
+      </c>
+      <c r="E381" t="n">
+        <v>3345.695</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>20161103</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D382" t="n">
+        <v>3326.9045</v>
+      </c>
+      <c r="E382" t="n">
+        <v>3365.085</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>20161110</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D383" t="n">
+        <v>3374.906</v>
+      </c>
+      <c r="E383" t="n">
+        <v>3390.6119</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>20161117</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D384" t="n">
+        <v>3423.4654</v>
+      </c>
+      <c r="E384" t="n">
+        <v>3436.535</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>20161124</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D385" t="n">
+        <v>3468.8071</v>
+      </c>
+      <c r="E385" t="n">
+        <v>3488.7402</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>20161201</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D386" t="n">
+        <v>3543.9555</v>
+      </c>
+      <c r="E386" t="n">
+        <v>3565.036</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>20161208</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D387" t="n">
+        <v>3481.8067</v>
+      </c>
+      <c r="E387" t="n">
+        <v>3470.1426</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>20161215</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D388" t="n">
+        <v>3363.8597</v>
+      </c>
+      <c r="E388" t="n">
+        <v>3340.4338</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>20161222</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D389" t="n">
+        <v>3335.1218</v>
+      </c>
+      <c r="E389" t="n">
+        <v>3335.672</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>20161229</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D390" t="n">
+        <v>3297.036</v>
+      </c>
+      <c r="E390" t="n">
+        <v>3297.7648</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>20170105</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D391" t="n">
+        <v>3368.3402</v>
+      </c>
+      <c r="E391" t="n">
+        <v>3367.7892</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>20170112</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D392" t="n">
+        <v>3332.6857</v>
+      </c>
+      <c r="E392" t="n">
+        <v>3317.6241</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>20170119</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D393" t="n">
+        <v>3330.9522</v>
+      </c>
+      <c r="E393" t="n">
+        <v>3329.2891</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>20170126</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D394" t="n">
+        <v>3378.2609</v>
+      </c>
+      <c r="E394" t="n">
+        <v>3387.9606</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>20170209</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D395" t="n">
+        <v>3381.8992</v>
+      </c>
+      <c r="E395" t="n">
+        <v>3396.2924</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>20170216</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D396" t="n">
+        <v>3421.8299</v>
+      </c>
+      <c r="E396" t="n">
+        <v>3440.9331</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>20170223</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D397" t="n">
+        <v>3487.5745</v>
+      </c>
+      <c r="E397" t="n">
+        <v>3473.3236</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>20170302</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D398" t="n">
+        <v>3463.4829</v>
+      </c>
+      <c r="E398" t="n">
+        <v>3435.0963</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>20170309</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D399" t="n">
+        <v>3442.8953</v>
+      </c>
+      <c r="E399" t="n">
+        <v>3426.9438</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>20170316</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D400" t="n">
+        <v>3472.2694</v>
+      </c>
+      <c r="E400" t="n">
+        <v>3481.5066</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>20170323</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D401" t="n">
+        <v>3452.4056</v>
+      </c>
+      <c r="E401" t="n">
+        <v>3461.9782</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>20170330</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D402" t="n">
+        <v>3461.6159</v>
+      </c>
+      <c r="E402" t="n">
+        <v>3436.758</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>20170406</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D403" t="n">
+        <v>3507.9879</v>
+      </c>
+      <c r="E403" t="n">
+        <v>3514.0469</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>20170413</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D404" t="n">
+        <v>3500.2838</v>
+      </c>
+      <c r="E404" t="n">
+        <v>3514.5662</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>20170420</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D405" t="n">
+        <v>3444.5225</v>
+      </c>
+      <c r="E405" t="n">
+        <v>3461.5481</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>20170427</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D406" t="n">
+        <v>3435.1017</v>
+      </c>
+      <c r="E406" t="n">
+        <v>3446.7202</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>20170504</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D407" t="n">
+        <v>3404.9379</v>
+      </c>
+      <c r="E407" t="n">
+        <v>3404.3864</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>20170511</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D408" t="n">
+        <v>3322.9455</v>
+      </c>
+      <c r="E408" t="n">
+        <v>3356.6459</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>20170518</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D409" t="n">
+        <v>3387.6655</v>
+      </c>
+      <c r="E409" t="n">
+        <v>3398.1127</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>20170525</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D410" t="n">
+        <v>3414.3992</v>
+      </c>
+      <c r="E410" t="n">
+        <v>3485.6581</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>20170601</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D411" t="n">
+        <v>3485.2223</v>
+      </c>
+      <c r="E411" t="n">
+        <v>3497.7382</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>20170608</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D412" t="n">
+        <v>3531.2419</v>
+      </c>
+      <c r="E412" t="n">
+        <v>3560.9786</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>20170615</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D413" t="n">
+        <v>3530.7465</v>
+      </c>
+      <c r="E413" t="n">
+        <v>3528.7926</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>20170622</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D414" t="n">
+        <v>3583.5583</v>
+      </c>
+      <c r="E414" t="n">
+        <v>3590.3425</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>20170629</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D415" t="n">
+        <v>3649.2525</v>
+      </c>
+      <c r="E415" t="n">
+        <v>3668.8279</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>20170706</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D416" t="n">
+        <v>3654.5576</v>
+      </c>
+      <c r="E416" t="n">
+        <v>3660.0967</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>20170713</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D417" t="n">
+        <v>3656.3502</v>
+      </c>
+      <c r="E417" t="n">
+        <v>3686.9205</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>20170720</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D418" t="n">
+        <v>3725.1436</v>
+      </c>
+      <c r="E418" t="n">
+        <v>3747.8843</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>20170727</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D419" t="n">
+        <v>3700.8558</v>
+      </c>
+      <c r="E419" t="n">
+        <v>3712.1947</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>20170803</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D420" t="n">
+        <v>3755.1081</v>
+      </c>
+      <c r="E420" t="n">
+        <v>3727.8264</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>20170810</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D421" t="n">
+        <v>3724.962</v>
+      </c>
+      <c r="E421" t="n">
+        <v>3715.9208</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>20170817</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D422" t="n">
+        <v>3707.0668</v>
+      </c>
+      <c r="E422" t="n">
+        <v>3721.277</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>20170824</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D423" t="n">
+        <v>3755.8902</v>
+      </c>
+      <c r="E423" t="n">
+        <v>3734.6458</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>20170831</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D424" t="n">
+        <v>3835.8394</v>
+      </c>
+      <c r="E424" t="n">
+        <v>3822.0928</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>20170907</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D425" t="n">
+        <v>3851.688</v>
+      </c>
+      <c r="E425" t="n">
+        <v>3829.8713</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>20170914</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D426" t="n">
+        <v>3843.572</v>
+      </c>
+      <c r="E426" t="n">
+        <v>3829.9554</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>20170921</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D427" t="n">
+        <v>3843.2577</v>
+      </c>
+      <c r="E427" t="n">
+        <v>3837.8176</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>20170928</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D428" t="n">
+        <v>3821.5904</v>
+      </c>
+      <c r="E428" t="n">
+        <v>3822.5386</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>20171012</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D429" t="n">
+        <v>3902.0156</v>
+      </c>
+      <c r="E429" t="n">
+        <v>3912.9536</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>20171019</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D430" t="n">
+        <v>3940.5831</v>
+      </c>
+      <c r="E430" t="n">
+        <v>3931.2495</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>20171026</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D431" t="n">
+        <v>3980.0479</v>
+      </c>
+      <c r="E431" t="n">
+        <v>3993.5752</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>20171102</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D432" t="n">
+        <v>3994.0946</v>
+      </c>
+      <c r="E432" t="n">
+        <v>3997.1343</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>20171109</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D433" t="n">
+        <v>4043.0663</v>
+      </c>
+      <c r="E433" t="n">
+        <v>4075.8998</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>20171116</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D434" t="n">
+        <v>4063.4943</v>
+      </c>
+      <c r="E434" t="n">
+        <v>4105.0122</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>20171123</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D435" t="n">
+        <v>4213.3781</v>
+      </c>
+      <c r="E435" t="n">
+        <v>4102.3966</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>20171130</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D436" t="n">
+        <v>4034.0091</v>
+      </c>
+      <c r="E436" t="n">
+        <v>4006.0993</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>20171207</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D437" t="n">
+        <v>4003.5826</v>
+      </c>
+      <c r="E437" t="n">
+        <v>3971.0569</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>20171214</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D438" t="n">
+        <v>4050.9028</v>
+      </c>
+      <c r="E438" t="n">
+        <v>4026.1516</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>20171221</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D439" t="n">
+        <v>4023.076</v>
+      </c>
+      <c r="E439" t="n">
+        <v>4067.8485</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>20171228</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3992.997</v>
+      </c>
+      <c r="E440" t="n">
+        <v>4018.8974</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>20180104</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D441" t="n">
+        <v>4114.1213</v>
+      </c>
+      <c r="E441" t="n">
+        <v>4128.8119</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>20180111</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D442" t="n">
+        <v>4197.1136</v>
+      </c>
+      <c r="E442" t="n">
+        <v>4205.5863</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>20180118</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D443" t="n">
+        <v>4259.375</v>
+      </c>
+      <c r="E443" t="n">
+        <v>4271.4168</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>20180125</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D444" t="n">
+        <v>4381.9768</v>
+      </c>
+      <c r="E444" t="n">
+        <v>4365.0794</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>20180201</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D445" t="n">
+        <v>4276.3425</v>
+      </c>
+      <c r="E445" t="n">
+        <v>4245.8978</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>20180208</v>
+      </c>
+      <c r="C446" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D446" t="n">
+        <v>4022.8802</v>
+      </c>
+      <c r="E446" t="n">
+        <v>4012.0472</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>20180222</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D447" t="n">
+        <v>4020.9731</v>
+      </c>
+      <c r="E447" t="n">
+        <v>4052.7332</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D448" t="n">
+        <v>3994.8686</v>
+      </c>
+      <c r="E448" t="n">
+        <v>4049.0863</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>20180308</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D449" t="n">
+        <v>4038.9527</v>
+      </c>
+      <c r="E449" t="n">
+        <v>4077.6001</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>20180315</v>
+      </c>
+      <c r="C450" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D450" t="n">
+        <v>4058.7058</v>
+      </c>
+      <c r="E450" t="n">
+        <v>4096.1627</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>20180322</v>
+      </c>
+      <c r="C451" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D451" t="n">
+        <v>4062.0668</v>
+      </c>
+      <c r="E451" t="n">
+        <v>4020.349</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>20180329</v>
+      </c>
+      <c r="C452" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D452" t="n">
+        <v>3854.5914</v>
+      </c>
+      <c r="E452" t="n">
+        <v>3894.0498</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>20180412</v>
+      </c>
+      <c r="C453" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D453" t="n">
+        <v>3935.673</v>
+      </c>
+      <c r="E453" t="n">
+        <v>3898.6354</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>20180419</v>
+      </c>
+      <c r="C454" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D454" t="n">
+        <v>3774.784</v>
+      </c>
+      <c r="E454" t="n">
+        <v>3811.843</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>20180426</v>
+      </c>
+      <c r="C455" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D455" t="n">
+        <v>3823.3921</v>
+      </c>
+      <c r="E455" t="n">
+        <v>3755.4941</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>20180503</v>
+      </c>
+      <c r="C456" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D456" t="n">
+        <v>3756.1657</v>
+      </c>
+      <c r="E456" t="n">
+        <v>3793.0001</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>20180510</v>
+      </c>
+      <c r="C457" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D457" t="n">
+        <v>3882.8357</v>
+      </c>
+      <c r="E457" t="n">
+        <v>3893.0565</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>20180517</v>
+      </c>
+      <c r="C458" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D458" t="n">
+        <v>3895.4895</v>
+      </c>
+      <c r="E458" t="n">
+        <v>3864.0507</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>20180524</v>
+      </c>
+      <c r="C459" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D459" t="n">
+        <v>3853.2916</v>
+      </c>
+      <c r="E459" t="n">
+        <v>3827.217</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>20180531</v>
+      </c>
+      <c r="C460" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D460" t="n">
+        <v>3749.2954</v>
+      </c>
+      <c r="E460" t="n">
+        <v>3802.3759</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>20180607</v>
+      </c>
+      <c r="C461" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D461" t="n">
+        <v>3846.9367</v>
+      </c>
+      <c r="E461" t="n">
+        <v>3831.0128</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>20180614</v>
+      </c>
+      <c r="C462" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D462" t="n">
+        <v>3774.6396</v>
+      </c>
+      <c r="E462" t="n">
+        <v>3773.3655</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>20180621</v>
+      </c>
+      <c r="C463" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D463" t="n">
+        <v>3633.5558</v>
+      </c>
+      <c r="E463" t="n">
+        <v>3592.965</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>20180628</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D464" t="n">
+        <v>3434.9441</v>
+      </c>
+      <c r="E464" t="n">
+        <v>3423.5255</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>20180705</v>
+      </c>
+      <c r="C465" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D465" t="n">
+        <v>3365.5547</v>
+      </c>
+      <c r="E465" t="n">
+        <v>3342.4379</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>20180712</v>
+      </c>
+      <c r="C466" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D466" t="n">
+        <v>3403.3302</v>
+      </c>
+      <c r="E466" t="n">
+        <v>3481.0559</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>20180719</v>
+      </c>
+      <c r="C467" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D467" t="n">
+        <v>3444.8032</v>
+      </c>
+      <c r="E467" t="n">
+        <v>3428.343</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>20180726</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D468" t="n">
+        <v>3583.3173</v>
+      </c>
+      <c r="E468" t="n">
+        <v>3536.2456</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>20180802</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D469" t="n">
+        <v>3434.3516</v>
+      </c>
+      <c r="E469" t="n">
+        <v>3370.9579</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>20180809</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D470" t="n">
+        <v>3303.4765</v>
+      </c>
+      <c r="E470" t="n">
+        <v>3397.5298</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>20180816</v>
+      </c>
+      <c r="C471" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D471" t="n">
+        <v>3251.8556</v>
+      </c>
+      <c r="E471" t="n">
+        <v>3276.7276</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>20180823</v>
+      </c>
+      <c r="C472" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D472" t="n">
+        <v>3308.4589</v>
+      </c>
+      <c r="E472" t="n">
+        <v>3320.0257</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>20180830</v>
+      </c>
+      <c r="C473" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D473" t="n">
+        <v>3385.8052</v>
+      </c>
+      <c r="E473" t="n">
+        <v>3351.0942</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>20180906</v>
+      </c>
+      <c r="C474" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D474" t="n">
+        <v>3286.6645</v>
+      </c>
+      <c r="E474" t="n">
+        <v>3262.8808</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>20180913</v>
+      </c>
+      <c r="C475" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D475" t="n">
+        <v>3239.6852</v>
+      </c>
+      <c r="E475" t="n">
+        <v>3236.5662</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="C476" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D476" t="n">
+        <v>3314.8758</v>
+      </c>
+      <c r="E476" t="n">
+        <v>3310.1258</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>20180927</v>
+      </c>
+      <c r="C477" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D477" t="n">
+        <v>3415.9532</v>
+      </c>
+      <c r="E477" t="n">
+        <v>3403.5902</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>20181011</v>
+      </c>
+      <c r="C478" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D478" t="n">
+        <v>3179.5408</v>
+      </c>
+      <c r="E478" t="n">
+        <v>3124.1139</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>20181018</v>
+      </c>
+      <c r="C479" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D479" t="n">
+        <v>3097.7903</v>
+      </c>
+      <c r="E479" t="n">
+        <v>3044.3918</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>20181025</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D480" t="n">
+        <v>3107.8402</v>
+      </c>
+      <c r="E480" t="n">
+        <v>3194.3084</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>20181101</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D481" t="n">
+        <v>3185.202</v>
+      </c>
+      <c r="E481" t="n">
+        <v>3177.0338</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>20181108</v>
+      </c>
+      <c r="C482" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D482" t="n">
+        <v>3251.7281</v>
+      </c>
+      <c r="E482" t="n">
+        <v>3212.7737</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>20181115</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D483" t="n">
+        <v>3201.2814</v>
+      </c>
+      <c r="E483" t="n">
+        <v>3242.3715</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>20181122</v>
+      </c>
+      <c r="C484" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D484" t="n">
+        <v>3232.9731</v>
+      </c>
+      <c r="E484" t="n">
+        <v>3214.4273</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>20181129</v>
+      </c>
+      <c r="C485" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D485" t="n">
+        <v>3198.8259</v>
+      </c>
+      <c r="E485" t="n">
+        <v>3137.6542</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>20181206</v>
+      </c>
+      <c r="C486" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D486" t="n">
+        <v>3218.113</v>
+      </c>
+      <c r="E486" t="n">
+        <v>3181.673</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>20181213</v>
+      </c>
+      <c r="C487" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D487" t="n">
+        <v>3178.891</v>
+      </c>
+      <c r="E487" t="n">
+        <v>3219.6924</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>20181220</v>
+      </c>
+      <c r="C488" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D488" t="n">
+        <v>3083.5441</v>
+      </c>
+      <c r="E488" t="n">
+        <v>3067.4169</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>20181227</v>
+      </c>
+      <c r="C489" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D489" t="n">
+        <v>3042.9491</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2990.5057</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>20190103</v>
+      </c>
+      <c r="C490" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D490" t="n">
+        <v>2963.0186</v>
+      </c>
+      <c r="E490" t="n">
+        <v>2964.8421</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>20190110</v>
+      </c>
+      <c r="C491" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D491" t="n">
+        <v>3077.4817</v>
+      </c>
+      <c r="E491" t="n">
+        <v>3072.6864</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>20190117</v>
+      </c>
+      <c r="C492" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D492" t="n">
+        <v>3132.6285</v>
+      </c>
+      <c r="E492" t="n">
+        <v>3111.4168</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>20190124</v>
+      </c>
+      <c r="C493" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D493" t="n">
+        <v>3146.6046</v>
+      </c>
+      <c r="E493" t="n">
+        <v>3158.7817</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>20190131</v>
+      </c>
+      <c r="C494" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D494" t="n">
+        <v>3182.6987</v>
+      </c>
+      <c r="E494" t="n">
+        <v>3201.6331</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>20190214</v>
+      </c>
+      <c r="C495" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D495" t="n">
+        <v>3392.8547</v>
+      </c>
+      <c r="E495" t="n">
+        <v>3402.1403</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>20190221</v>
+      </c>
+      <c r="C496" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D496" t="n">
+        <v>3450.1411</v>
+      </c>
+      <c r="E496" t="n">
+        <v>3442.7056</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>20190228</v>
+      </c>
+      <c r="C497" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D497" t="n">
+        <v>3675.2642</v>
+      </c>
+      <c r="E497" t="n">
+        <v>3669.3703</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>20190307</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D498" t="n">
+        <v>3841.1456</v>
+      </c>
+      <c r="E498" t="n">
+        <v>3808.8497</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>20190314</v>
+      </c>
+      <c r="C499" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D499" t="n">
+        <v>3710.2934</v>
+      </c>
+      <c r="E499" t="n">
+        <v>3698.4858</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>20190321</v>
+      </c>
+      <c r="C500" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D500" t="n">
+        <v>3840.2783</v>
+      </c>
+      <c r="E500" t="n">
+        <v>3836.8913</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>20190328</v>
+      </c>
+      <c r="C501" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D501" t="n">
+        <v>3731.0612</v>
+      </c>
+      <c r="E501" t="n">
+        <v>3728.3953</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>20190404</v>
+      </c>
+      <c r="C502" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D502" t="n">
+        <v>4039.7415</v>
+      </c>
+      <c r="E502" t="n">
+        <v>4062.2309</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>20190411</v>
+      </c>
+      <c r="C503" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D503" t="n">
+        <v>4083.4618</v>
+      </c>
+      <c r="E503" t="n">
+        <v>3997.5778</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>20190418</v>
+      </c>
+      <c r="C504" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D504" t="n">
+        <v>4085.1148</v>
+      </c>
+      <c r="E504" t="n">
+        <v>4072.0753</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>20190425</v>
+      </c>
+      <c r="C505" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D505" t="n">
+        <v>4013.6027</v>
+      </c>
+      <c r="E505" t="n">
+        <v>3941.816</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>20190509</v>
+      </c>
+      <c r="C506" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D506" t="n">
+        <v>3637.346</v>
+      </c>
+      <c r="E506" t="n">
+        <v>3599.7001</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>20190516</v>
+      </c>
+      <c r="C507" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D507" t="n">
+        <v>3720.039</v>
+      </c>
+      <c r="E507" t="n">
+        <v>3743.9635</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>20190523</v>
+      </c>
+      <c r="C508" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D508" t="n">
+        <v>3629.5284</v>
+      </c>
+      <c r="E508" t="n">
+        <v>3583.9646</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>20190530</v>
+      </c>
+      <c r="C509" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D509" t="n">
+        <v>3648.8495</v>
+      </c>
+      <c r="E509" t="n">
+        <v>3641.1833</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>20190606</v>
+      </c>
+      <c r="C510" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D510" t="n">
+        <v>3601.0356</v>
+      </c>
+      <c r="E510" t="n">
+        <v>3564.6778</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>20190613</v>
+      </c>
+      <c r="C511" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D511" t="n">
+        <v>3689.5834</v>
+      </c>
+      <c r="E511" t="n">
+        <v>3685.3933</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>20190620</v>
+      </c>
+      <c r="C512" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D512" t="n">
+        <v>3718.9416</v>
+      </c>
+      <c r="E512" t="n">
+        <v>3828.5183</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>20190627</v>
+      </c>
+      <c r="C513" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D513" t="n">
+        <v>3807.5376</v>
+      </c>
+      <c r="E513" t="n">
+        <v>3834.8172</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>20190704</v>
+      </c>
+      <c r="C514" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D514" t="n">
+        <v>3895.1978</v>
+      </c>
+      <c r="E514" t="n">
+        <v>3873.1019</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>20190711</v>
+      </c>
+      <c r="C515" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D515" t="n">
+        <v>3806.1855</v>
+      </c>
+      <c r="E515" t="n">
+        <v>3785.221</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>20190718</v>
+      </c>
+      <c r="C516" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D516" t="n">
+        <v>3793.1893</v>
+      </c>
+      <c r="E516" t="n">
+        <v>3768.4019</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>20190725</v>
+      </c>
+      <c r="C517" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D517" t="n">
+        <v>3821.3898</v>
+      </c>
+      <c r="E517" t="n">
+        <v>3851.0665</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>20190801</v>
+      </c>
+      <c r="C518" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D518" t="n">
+        <v>3819.3242</v>
+      </c>
+      <c r="E518" t="n">
+        <v>3803.4694</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>20190808</v>
+      </c>
+      <c r="C519" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D519" t="n">
+        <v>3651.3571</v>
+      </c>
+      <c r="E519" t="n">
+        <v>3669.2936</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>20190815</v>
+      </c>
+      <c r="C520" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D520" t="n">
+        <v>3618.0092</v>
+      </c>
+      <c r="E520" t="n">
+        <v>3694.0006</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>20190822</v>
+      </c>
+      <c r="C521" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D521" t="n">
+        <v>3793.8552</v>
+      </c>
+      <c r="E521" t="n">
+        <v>3793.5061</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>20190829</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D522" t="n">
+        <v>3805.494</v>
+      </c>
+      <c r="E522" t="n">
+        <v>3790.1867</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>20190905</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D523" t="n">
+        <v>3909.2087</v>
+      </c>
+      <c r="E523" t="n">
+        <v>3925.323</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>20190912</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D524" t="n">
+        <v>3944.6917</v>
+      </c>
+      <c r="E524" t="n">
+        <v>3972.3799</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>20190919</v>
+      </c>
+      <c r="C525" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D525" t="n">
+        <v>3923.9631</v>
+      </c>
+      <c r="E525" t="n">
+        <v>3924.3823</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>20190926</v>
+      </c>
+      <c r="C526" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D526" t="n">
+        <v>3884.7022</v>
+      </c>
+      <c r="E526" t="n">
+        <v>3841.1388</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>20191010</v>
+      </c>
+      <c r="C527" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D527" t="n">
+        <v>3838.4865</v>
+      </c>
+      <c r="E527" t="n">
+        <v>3874.6391</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>20191017</v>
+      </c>
+      <c r="C528" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3929.386</v>
+      </c>
+      <c r="E528" t="n">
+        <v>3925.2216</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>20191024</v>
+      </c>
+      <c r="C529" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D529" t="n">
+        <v>3877.9239</v>
+      </c>
+      <c r="E529" t="n">
+        <v>3870.6678</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
         <v>20191031</v>
       </c>
-      <c r="C237" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D237" t="n">
+      <c r="C530" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D530" t="n">
         <v>3906.8593</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E530" t="n">
         <v>3886.7519</v>
       </c>
     </row>
